--- a/raw_data/20200818_saline/20200818_Sensor1_Test_47.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_47.xlsx
@@ -1,613 +1,1029 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28148B7E-237E-4757-BF5E-55F6F8179C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>41588.645694</v>
+        <v>41588.645693999999</v>
       </c>
       <c r="B2" s="1">
-        <v>11.552402</v>
+        <v>11.552402000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>908.906000</v>
+        <v>908.90599999999995</v>
       </c>
       <c r="D2" s="1">
-        <v>-179.517000</v>
+        <v>-179.517</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>41598.744241</v>
       </c>
       <c r="G2" s="1">
-        <v>11.555207</v>
+        <v>11.555206999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>923.471000</v>
+        <v>923.471</v>
       </c>
       <c r="I2" s="1">
-        <v>-153.410000</v>
+        <v>-153.41</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>41609.165188</v>
+        <v>41609.165187999999</v>
       </c>
       <c r="L2" s="1">
-        <v>11.558101</v>
+        <v>11.558101000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>944.555000</v>
+        <v>944.55499999999995</v>
       </c>
       <c r="N2" s="1">
-        <v>-111.736000</v>
+        <v>-111.736</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>41619.682358</v>
+        <v>41619.682357999998</v>
       </c>
       <c r="Q2" s="1">
         <v>11.561023</v>
       </c>
       <c r="R2" s="1">
-        <v>951.276000</v>
+        <v>951.27599999999995</v>
       </c>
       <c r="S2" s="1">
-        <v>-97.998200</v>
+        <v>-97.998199999999997</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>41630.606249</v>
+        <v>41630.606248999997</v>
       </c>
       <c r="V2" s="1">
         <v>11.564057</v>
       </c>
       <c r="W2" s="1">
-        <v>958.349000</v>
+        <v>958.34900000000005</v>
       </c>
       <c r="X2" s="1">
-        <v>-85.279700</v>
+        <v>-85.279700000000005</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>41641.005893</v>
+        <v>41641.005893000001</v>
       </c>
       <c r="AA2" s="1">
         <v>11.566946</v>
       </c>
       <c r="AB2" s="1">
-        <v>966.339000</v>
+        <v>966.33900000000006</v>
       </c>
       <c r="AC2" s="1">
-        <v>-75.922000</v>
+        <v>-75.921999999999997</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>41651.548859</v>
+        <v>41651.548859000002</v>
       </c>
       <c r="AF2" s="1">
         <v>11.569875</v>
       </c>
       <c r="AG2" s="1">
-        <v>971.625000</v>
+        <v>971.625</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.414800</v>
+        <v>-74.4148</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>41662.003148</v>
+        <v>41662.003148000003</v>
       </c>
       <c r="AK2" s="1">
-        <v>11.572779</v>
+        <v>11.572779000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>979.306000</v>
+        <v>979.30600000000004</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.422700</v>
+        <v>-79.422700000000006</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>41672.569776</v>
+        <v>41672.569775999997</v>
       </c>
       <c r="AP2" s="1">
         <v>11.575714</v>
       </c>
       <c r="AQ2" s="1">
-        <v>987.713000</v>
+        <v>987.71299999999997</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.132000</v>
+        <v>-91.132000000000005</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>41683.956928</v>
@@ -616,617 +1032,617 @@
         <v>11.578877</v>
       </c>
       <c r="AV2" s="1">
-        <v>997.650000</v>
+        <v>997.65</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.837000</v>
+        <v>-108.837</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>41694.848578</v>
+        <v>41694.848577999997</v>
       </c>
       <c r="AZ2" s="1">
-        <v>11.581902</v>
+        <v>11.581901999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1005.930000</v>
+        <v>1005.93</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.523000</v>
+        <v>-124.523</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>41705.506116</v>
+        <v>41705.506115999997</v>
       </c>
       <c r="BE2" s="1">
         <v>11.584863</v>
       </c>
       <c r="BF2" s="1">
-        <v>1044.370000</v>
+        <v>1044.3699999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-196.596000</v>
+        <v>-196.596</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>41716.188951</v>
+        <v>41716.188950999996</v>
       </c>
       <c r="BJ2" s="1">
-        <v>11.587830</v>
+        <v>11.58783</v>
       </c>
       <c r="BK2" s="1">
-        <v>1110.550000</v>
+        <v>1110.55</v>
       </c>
       <c r="BL2" s="1">
-        <v>-314.102000</v>
+        <v>-314.10199999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>41726.909484</v>
+        <v>41726.909484000003</v>
       </c>
       <c r="BO2" s="1">
-        <v>11.590808</v>
+        <v>11.590808000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1218.380000</v>
+        <v>1218.3800000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-500.073000</v>
+        <v>-500.07299999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>41738.487593</v>
+        <v>41738.487592999998</v>
       </c>
       <c r="BT2" s="1">
-        <v>11.594024</v>
+        <v>11.594023999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1339.890000</v>
+        <v>1339.89</v>
       </c>
       <c r="BV2" s="1">
-        <v>-704.664000</v>
+        <v>-704.66399999999999</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>41750.237358</v>
+        <v>41750.237357999998</v>
       </c>
       <c r="BY2" s="1">
-        <v>11.597288</v>
+        <v>11.597288000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1476.940000</v>
+        <v>1476.94</v>
       </c>
       <c r="CA2" s="1">
-        <v>-922.577000</v>
+        <v>-922.577</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>41761.393865</v>
+        <v>41761.393864999998</v>
       </c>
       <c r="CD2" s="1">
         <v>11.600387</v>
       </c>
       <c r="CE2" s="1">
-        <v>1836.020000</v>
+        <v>1836.02</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1441.980000</v>
+        <v>-1441.98</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>41589.024638</v>
+        <v>41589.024638000003</v>
       </c>
       <c r="B3" s="1">
         <v>11.552507</v>
       </c>
       <c r="C3" s="1">
-        <v>908.894000</v>
+        <v>908.89400000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-179.630000</v>
+        <v>-179.63</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>41599.087479</v>
+        <v>41599.087479000002</v>
       </c>
       <c r="G3" s="1">
-        <v>11.555302</v>
+        <v>11.555301999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>923.901000</v>
+        <v>923.90099999999995</v>
       </c>
       <c r="I3" s="1">
-        <v>-152.950000</v>
+        <v>-152.94999999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>41609.545124</v>
+        <v>41609.545123999997</v>
       </c>
       <c r="L3" s="1">
-        <v>11.558207</v>
+        <v>11.558206999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>944.454000</v>
+        <v>944.45399999999995</v>
       </c>
       <c r="N3" s="1">
-        <v>-111.770000</v>
+        <v>-111.77</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>41620.413958</v>
+        <v>41620.413957999997</v>
       </c>
       <c r="Q3" s="1">
         <v>11.561226</v>
       </c>
       <c r="R3" s="1">
-        <v>951.283000</v>
+        <v>951.28300000000002</v>
       </c>
       <c r="S3" s="1">
-        <v>-97.986900</v>
+        <v>-97.986900000000006</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>41630.986678</v>
+        <v>41630.986678000001</v>
       </c>
       <c r="V3" s="1">
-        <v>11.564163</v>
+        <v>11.564163000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>958.271000</v>
+        <v>958.27099999999996</v>
       </c>
       <c r="X3" s="1">
-        <v>-85.222100</v>
+        <v>-85.222099999999998</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>41641.361497</v>
+        <v>41641.361496999998</v>
       </c>
       <c r="AA3" s="1">
         <v>11.567045</v>
       </c>
       <c r="AB3" s="1">
-        <v>966.270000</v>
+        <v>966.27</v>
       </c>
       <c r="AC3" s="1">
-        <v>-75.873800</v>
+        <v>-75.873800000000003</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>41651.912395</v>
+        <v>41651.912394999999</v>
       </c>
       <c r="AF3" s="1">
         <v>11.569976</v>
       </c>
       <c r="AG3" s="1">
-        <v>971.620000</v>
+        <v>971.62</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.401200</v>
+        <v>-74.401200000000003</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>41662.693934</v>
+        <v>41662.693934000003</v>
       </c>
       <c r="AK3" s="1">
-        <v>11.572971</v>
+        <v>11.572971000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>979.337000</v>
+        <v>979.33699999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.460700</v>
+        <v>-79.460700000000003</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>41673.284511</v>
+        <v>41673.284510999998</v>
       </c>
       <c r="AP3" s="1">
-        <v>11.575912</v>
+        <v>11.575912000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>987.723000</v>
+        <v>987.72299999999996</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.124300</v>
+        <v>-91.124300000000005</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>41684.410801</v>
+        <v>41684.410800999998</v>
       </c>
       <c r="AU3" s="1">
         <v>11.579003</v>
       </c>
       <c r="AV3" s="1">
-        <v>997.658000</v>
+        <v>997.65800000000002</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.795000</v>
+        <v>-108.795</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>41695.207682</v>
       </c>
       <c r="AZ3" s="1">
-        <v>11.582002</v>
+        <v>11.582001999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1005.920000</v>
+        <v>1005.92</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.507000</v>
+        <v>-124.50700000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>41705.865981</v>
+        <v>41705.865981000003</v>
       </c>
       <c r="BE3" s="1">
         <v>11.584963</v>
       </c>
       <c r="BF3" s="1">
-        <v>1044.380000</v>
+        <v>1044.3800000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-196.610000</v>
+        <v>-196.61</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>41716.601125</v>
+        <v>41716.601125000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>11.587945</v>
+        <v>11.587944999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1110.560000</v>
+        <v>1110.56</v>
       </c>
       <c r="BL3" s="1">
-        <v>-314.147000</v>
+        <v>-314.14699999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>41727.335579</v>
+        <v>41727.335578999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>11.590927</v>
+        <v>11.590927000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1218.380000</v>
+        <v>1218.3800000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-500.066000</v>
+        <v>-500.06599999999997</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>41738.939976</v>
+        <v>41738.939976000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>11.594150</v>
+        <v>11.594150000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1339.830000</v>
+        <v>1339.83</v>
       </c>
       <c r="BV3" s="1">
-        <v>-704.676000</v>
+        <v>-704.67600000000004</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>41750.403977</v>
+        <v>41750.403977000002</v>
       </c>
       <c r="BY3" s="1">
         <v>11.597334</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1476.800000</v>
+        <v>1476.8</v>
       </c>
       <c r="CA3" s="1">
-        <v>-922.607000</v>
+        <v>-922.60699999999997</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>41761.988077</v>
+        <v>41761.988077000002</v>
       </c>
       <c r="CD3" s="1">
         <v>11.600552</v>
       </c>
       <c r="CE3" s="1">
-        <v>1837.560000</v>
+        <v>1837.56</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1440.750000</v>
+        <v>-1440.75</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>41589.366878</v>
+        <v>41589.366878000001</v>
       </c>
       <c r="B4" s="1">
         <v>11.552602</v>
       </c>
       <c r="C4" s="1">
-        <v>908.987000</v>
+        <v>908.98699999999997</v>
       </c>
       <c r="D4" s="1">
-        <v>-179.624000</v>
+        <v>-179.624</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>41599.776417</v>
+        <v>41599.776417000001</v>
       </c>
       <c r="G4" s="1">
         <v>11.555493</v>
       </c>
       <c r="H4" s="1">
-        <v>923.713000</v>
+        <v>923.71299999999997</v>
       </c>
       <c r="I4" s="1">
-        <v>-153.433000</v>
+        <v>-153.43299999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>41610.238530</v>
+        <v>41610.238530000002</v>
       </c>
       <c r="L4" s="1">
-        <v>11.558400</v>
+        <v>11.558400000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>944.591000</v>
+        <v>944.59100000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-111.690000</v>
+        <v>-111.69</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>41620.765124</v>
+        <v>41620.765123999998</v>
       </c>
       <c r="Q4" s="1">
-        <v>11.561324</v>
+        <v>11.561324000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>951.311000</v>
+        <v>951.31100000000004</v>
       </c>
       <c r="S4" s="1">
-        <v>-98.009300</v>
+        <v>-98.009299999999996</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>41631.328422</v>
+        <v>41631.328421999999</v>
       </c>
       <c r="V4" s="1">
-        <v>11.564258</v>
+        <v>11.564258000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>958.488000</v>
+        <v>958.48800000000006</v>
       </c>
       <c r="X4" s="1">
-        <v>-85.300900</v>
+        <v>-85.300899999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>41641.708696</v>
+        <v>41641.708696000002</v>
       </c>
       <c r="AA4" s="1">
-        <v>11.567141</v>
+        <v>11.567140999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>966.244000</v>
+        <v>966.24400000000003</v>
       </c>
       <c r="AC4" s="1">
-        <v>-75.956700</v>
+        <v>-75.956699999999998</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>41652.566618</v>
+        <v>41652.566617999997</v>
       </c>
       <c r="AF4" s="1">
         <v>11.570157</v>
       </c>
       <c r="AG4" s="1">
-        <v>971.583000</v>
+        <v>971.58299999999997</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.356700</v>
+        <v>-74.356700000000004</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>41663.083788</v>
+        <v>41663.083788000004</v>
       </c>
       <c r="AK4" s="1">
         <v>11.573079</v>
       </c>
       <c r="AL4" s="1">
-        <v>979.326000</v>
+        <v>979.32600000000002</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.442300</v>
+        <v>-79.442300000000003</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>41673.688254</v>
+        <v>41673.688254000001</v>
       </c>
       <c r="AP4" s="1">
         <v>11.576025</v>
       </c>
       <c r="AQ4" s="1">
-        <v>987.707000</v>
+        <v>987.70699999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.118700</v>
+        <v>-91.118700000000004</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>41684.794208</v>
+        <v>41684.794207999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>11.579110</v>
+        <v>11.57911</v>
       </c>
       <c r="AV4" s="1">
-        <v>997.650000</v>
+        <v>997.65</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.803000</v>
+        <v>-108.803</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>41695.565793</v>
+        <v>41695.565793000002</v>
       </c>
       <c r="AZ4" s="1">
-        <v>11.582102</v>
+        <v>11.582102000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1005.950000</v>
+        <v>1005.95</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.505000</v>
+        <v>-124.505</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>41706.225315</v>
+        <v>41706.225315000003</v>
       </c>
       <c r="BE4" s="1">
         <v>11.585063</v>
       </c>
       <c r="BF4" s="1">
-        <v>1044.350000</v>
+        <v>1044.3499999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-196.586000</v>
+        <v>-196.58600000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>41717.022725</v>
+        <v>41717.022725000003</v>
       </c>
       <c r="BJ4" s="1">
-        <v>11.588062</v>
+        <v>11.588062000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1110.560000</v>
+        <v>1110.56</v>
       </c>
       <c r="BL4" s="1">
-        <v>-314.157000</v>
+        <v>-314.15699999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>41727.740279</v>
+        <v>41727.740278999998</v>
       </c>
       <c r="BO4" s="1">
         <v>11.591039</v>
       </c>
       <c r="BP4" s="1">
-        <v>1218.380000</v>
+        <v>1218.3800000000001</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-500.033000</v>
+        <v>-500.03300000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>41739.366503</v>
+        <v>41739.366502999997</v>
       </c>
       <c r="BT4" s="1">
         <v>11.594268</v>
       </c>
       <c r="BU4" s="1">
-        <v>1339.840000</v>
+        <v>1339.84</v>
       </c>
       <c r="BV4" s="1">
-        <v>-704.578000</v>
+        <v>-704.57799999999997</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>41750.861330</v>
+        <v>41750.86133</v>
       </c>
       <c r="BY4" s="1">
-        <v>11.597461</v>
+        <v>11.597460999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1476.930000</v>
+        <v>1476.93</v>
       </c>
       <c r="CA4" s="1">
-        <v>-922.697000</v>
+        <v>-922.697</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>41762.527447</v>
@@ -1235,180 +1651,180 @@
         <v>11.600702</v>
       </c>
       <c r="CE4" s="1">
-        <v>1836.190000</v>
+        <v>1836.19</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1441.110000</v>
+        <v>-1441.11</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>41590.047884</v>
       </c>
       <c r="B5" s="1">
-        <v>11.552791</v>
+        <v>11.552790999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>908.943000</v>
+        <v>908.94299999999998</v>
       </c>
       <c r="D5" s="1">
-        <v>-179.417000</v>
+        <v>-179.417</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>41600.124608</v>
+        <v>41600.124607999998</v>
       </c>
       <c r="G5" s="1">
-        <v>11.555590</v>
+        <v>11.55559</v>
       </c>
       <c r="H5" s="1">
-        <v>923.634000</v>
+        <v>923.63400000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-152.958000</v>
+        <v>-152.958</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>41610.581266</v>
+        <v>41610.581266000001</v>
       </c>
       <c r="L5" s="1">
-        <v>11.558495</v>
+        <v>11.558495000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>944.354000</v>
+        <v>944.35400000000004</v>
       </c>
       <c r="N5" s="1">
-        <v>-111.807000</v>
+        <v>-111.807</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>41621.113811</v>
+        <v>41621.113811000003</v>
       </c>
       <c r="Q5" s="1">
-        <v>11.561421</v>
+        <v>11.561420999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>951.341000</v>
+        <v>951.34100000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-98.044400</v>
+        <v>-98.044399999999996</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>41631.991118</v>
+        <v>41631.991117999998</v>
       </c>
       <c r="V5" s="1">
         <v>11.564442</v>
       </c>
       <c r="W5" s="1">
-        <v>958.406000</v>
+        <v>958.40599999999995</v>
       </c>
       <c r="X5" s="1">
-        <v>-85.176700</v>
+        <v>-85.176699999999997</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>41642.374329</v>
+        <v>41642.374328999998</v>
       </c>
       <c r="AA5" s="1">
         <v>11.567326</v>
       </c>
       <c r="AB5" s="1">
-        <v>966.269000</v>
+        <v>966.26900000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-75.911800</v>
+        <v>-75.911799999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>41652.943120</v>
+        <v>41652.943120000004</v>
       </c>
       <c r="AF5" s="1">
         <v>11.570262</v>
       </c>
       <c r="AG5" s="1">
-        <v>971.633000</v>
+        <v>971.63300000000004</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.377100</v>
+        <v>-74.377099999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>41663.429997</v>
+        <v>41663.429996999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>11.573175</v>
+        <v>11.573175000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>979.360000</v>
+        <v>979.36</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.425000</v>
+        <v>-79.424999999999997</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>41674.074677</v>
+        <v>41674.074676999997</v>
       </c>
       <c r="AP5" s="1">
-        <v>11.576132</v>
+        <v>11.576131999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>987.709000</v>
+        <v>987.70899999999995</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.128600</v>
+        <v>-91.128600000000006</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>41685.158240</v>
+        <v>41685.158239999997</v>
       </c>
       <c r="AU5" s="1">
-        <v>11.579211</v>
+        <v>11.579211000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>997.639000</v>
+        <v>997.63900000000001</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.816000</v>
+        <v>-108.816</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>41695.987393</v>
+        <v>41695.987393000003</v>
       </c>
       <c r="AZ5" s="1">
         <v>11.582219</v>
       </c>
       <c r="BA5" s="1">
-        <v>1005.950000</v>
+        <v>1005.95</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.505000</v>
+        <v>-124.505</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>41706.654852</v>
@@ -1417,407 +1833,407 @@
         <v>11.585182</v>
       </c>
       <c r="BF5" s="1">
-        <v>1044.350000</v>
+        <v>1044.3499999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-196.590000</v>
+        <v>-196.59</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>41717.377364</v>
       </c>
       <c r="BJ5" s="1">
-        <v>11.588160</v>
+        <v>11.58816</v>
       </c>
       <c r="BK5" s="1">
-        <v>1110.550000</v>
+        <v>1110.55</v>
       </c>
       <c r="BL5" s="1">
-        <v>-314.123000</v>
+        <v>-314.12299999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>41728.133606</v>
+        <v>41728.133606000003</v>
       </c>
       <c r="BO5" s="1">
         <v>11.591148</v>
       </c>
       <c r="BP5" s="1">
-        <v>1218.380000</v>
+        <v>1218.3800000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-500.062000</v>
+        <v>-500.06200000000001</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>41739.779174</v>
+        <v>41739.779174000003</v>
       </c>
       <c r="BT5" s="1">
-        <v>11.594383</v>
+        <v>11.594383000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1339.830000</v>
+        <v>1339.83</v>
       </c>
       <c r="BV5" s="1">
-        <v>-704.539000</v>
+        <v>-704.53899999999999</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>41751.310663</v>
+        <v>41751.310662999997</v>
       </c>
       <c r="BY5" s="1">
         <v>11.597586</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1476.930000</v>
+        <v>1476.93</v>
       </c>
       <c r="CA5" s="1">
-        <v>-922.707000</v>
+        <v>-922.70699999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>41763.067833</v>
+        <v>41763.067833000001</v>
       </c>
       <c r="CD5" s="1">
         <v>11.600852</v>
       </c>
       <c r="CE5" s="1">
-        <v>1837.310000</v>
+        <v>1837.31</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1442.320000</v>
+        <v>-1442.32</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>41590.393597</v>
+        <v>41590.393597000002</v>
       </c>
       <c r="B6" s="1">
         <v>11.552887</v>
       </c>
       <c r="C6" s="1">
-        <v>908.932000</v>
+        <v>908.93200000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>-179.461000</v>
+        <v>-179.46100000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>41600.472798</v>
+        <v>41600.472798000003</v>
       </c>
       <c r="G6" s="1">
-        <v>11.555687</v>
+        <v>11.555687000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>923.750000</v>
+        <v>923.75</v>
       </c>
       <c r="I6" s="1">
-        <v>-153.128000</v>
+        <v>-153.12799999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>41610.927473</v>
+        <v>41610.927473000003</v>
       </c>
       <c r="L6" s="1">
         <v>11.558591</v>
       </c>
       <c r="M6" s="1">
-        <v>944.438000</v>
+        <v>944.43799999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-111.789000</v>
+        <v>-111.789</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>41621.775475</v>
+        <v>41621.775475000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>11.561604</v>
+        <v>11.561604000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>951.315000</v>
+        <v>951.31500000000005</v>
       </c>
       <c r="S6" s="1">
-        <v>-98.071100</v>
+        <v>-98.071100000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>41632.358614</v>
+        <v>41632.358613999997</v>
       </c>
       <c r="V6" s="1">
         <v>11.564544</v>
       </c>
       <c r="W6" s="1">
-        <v>958.362000</v>
+        <v>958.36199999999997</v>
       </c>
       <c r="X6" s="1">
-        <v>-85.315700</v>
+        <v>-85.315700000000007</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>41642.752775</v>
+        <v>41642.752775000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>11.567431</v>
+        <v>11.567430999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>966.333000</v>
+        <v>966.33299999999997</v>
       </c>
       <c r="AC6" s="1">
-        <v>-75.907100</v>
+        <v>-75.9071</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>41653.288330</v>
+        <v>41653.288330000003</v>
       </c>
       <c r="AF6" s="1">
-        <v>11.570358</v>
+        <v>11.570358000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>971.598000</v>
+        <v>971.59799999999996</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.375700</v>
+        <v>-74.375699999999995</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>41663.782156</v>
+        <v>41663.782156000001</v>
       </c>
       <c r="AK6" s="1">
         <v>11.573273</v>
       </c>
       <c r="AL6" s="1">
-        <v>979.354000</v>
+        <v>979.35400000000004</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.435200</v>
+        <v>-79.435199999999995</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>41674.455564</v>
+        <v>41674.455564000004</v>
       </c>
       <c r="AP6" s="1">
         <v>11.576238</v>
       </c>
       <c r="AQ6" s="1">
-        <v>987.713000</v>
+        <v>987.71299999999997</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.130000</v>
+        <v>-91.13</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>41685.587279</v>
+        <v>41685.587278999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>11.579330</v>
+        <v>11.579330000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>997.633000</v>
+        <v>997.63300000000004</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.851000</v>
+        <v>-108.851</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>41696.283016</v>
+        <v>41696.283016000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>11.582301</v>
+        <v>11.582300999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1005.960000</v>
+        <v>1005.96</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.510000</v>
+        <v>-124.51</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>41706.945010</v>
+        <v>41706.945010000003</v>
       </c>
       <c r="BE6" s="1">
-        <v>11.585263</v>
+        <v>11.585262999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1044.380000</v>
+        <v>1044.3800000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-196.615000</v>
+        <v>-196.61500000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>41717.755812</v>
+        <v>41717.755812000003</v>
       </c>
       <c r="BJ6" s="1">
-        <v>11.588266</v>
+        <v>11.588266000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1110.580000</v>
+        <v>1110.58</v>
       </c>
       <c r="BL6" s="1">
-        <v>-314.135000</v>
+        <v>-314.13499999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>41728.554214</v>
+        <v>41728.554214000003</v>
       </c>
       <c r="BO6" s="1">
         <v>11.591265</v>
       </c>
       <c r="BP6" s="1">
-        <v>1218.390000</v>
+        <v>1218.3900000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-500.074000</v>
+        <v>-500.07400000000001</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>41740.194331</v>
+        <v>41740.194330999999</v>
       </c>
       <c r="BT6" s="1">
         <v>11.594498</v>
       </c>
       <c r="BU6" s="1">
-        <v>1339.880000</v>
+        <v>1339.88</v>
       </c>
       <c r="BV6" s="1">
-        <v>-704.426000</v>
+        <v>-704.42600000000004</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>41751.768472</v>
+        <v>41751.768472000003</v>
       </c>
       <c r="BY6" s="1">
-        <v>11.597713</v>
+        <v>11.597713000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1476.830000</v>
+        <v>1476.83</v>
       </c>
       <c r="CA6" s="1">
-        <v>-922.759000</v>
+        <v>-922.75900000000001</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>41763.608008</v>
+        <v>41763.608008000003</v>
       </c>
       <c r="CD6" s="1">
-        <v>11.601002</v>
+        <v>11.601001999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1836.640000</v>
+        <v>1836.64</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1440.120000</v>
+        <v>-1440.12</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>41590.732860</v>
+        <v>41590.732859999996</v>
       </c>
       <c r="B7" s="1">
-        <v>11.552981</v>
+        <v>11.552981000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>909.063000</v>
+        <v>909.06299999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-179.638000</v>
+        <v>-179.63800000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>41601.143392</v>
+        <v>41601.143391999998</v>
       </c>
       <c r="G7" s="1">
         <v>11.555873</v>
       </c>
       <c r="H7" s="1">
-        <v>923.826000</v>
+        <v>923.82600000000002</v>
       </c>
       <c r="I7" s="1">
-        <v>-152.410000</v>
+        <v>-152.41</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>41611.616416</v>
+        <v>41611.616415999997</v>
       </c>
       <c r="L7" s="1">
-        <v>11.558782</v>
+        <v>11.558782000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>944.483000</v>
+        <v>944.48299999999995</v>
       </c>
       <c r="N7" s="1">
-        <v>-111.708000</v>
+        <v>-111.708</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>41622.161394</v>
+        <v>41622.161394000002</v>
       </c>
       <c r="Q7" s="1">
-        <v>11.561711</v>
+        <v>11.561711000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>951.274000</v>
+        <v>951.274</v>
       </c>
       <c r="S7" s="1">
-        <v>-98.032000</v>
+        <v>-98.031999999999996</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>41632.701385</v>
@@ -1826,28 +2242,28 @@
         <v>11.564639</v>
       </c>
       <c r="W7" s="1">
-        <v>958.324000</v>
+        <v>958.32399999999996</v>
       </c>
       <c r="X7" s="1">
-        <v>-85.329800</v>
+        <v>-85.329800000000006</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>41643.099480</v>
+        <v>41643.099479999997</v>
       </c>
       <c r="AA7" s="1">
-        <v>11.567528</v>
+        <v>11.567527999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>966.383000</v>
+        <v>966.38300000000004</v>
       </c>
       <c r="AC7" s="1">
-        <v>-75.977400</v>
+        <v>-75.977400000000003</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>41653.633512</v>
@@ -1856,527 +2272,527 @@
         <v>11.570454</v>
       </c>
       <c r="AG7" s="1">
-        <v>971.608000</v>
+        <v>971.60799999999995</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.371300</v>
+        <v>-74.371300000000005</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>41664.211195</v>
+        <v>41664.211195000003</v>
       </c>
       <c r="AK7" s="1">
         <v>11.573392</v>
       </c>
       <c r="AL7" s="1">
-        <v>979.387000</v>
+        <v>979.38699999999994</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.428200</v>
+        <v>-79.428200000000004</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>41674.868732</v>
+        <v>41674.868732000003</v>
       </c>
       <c r="AP7" s="1">
         <v>11.576352</v>
       </c>
       <c r="AQ7" s="1">
-        <v>987.697000</v>
+        <v>987.697</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.100400</v>
+        <v>-91.100399999999993</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>41685.889343</v>
+        <v>41685.889343000003</v>
       </c>
       <c r="AU7" s="1">
         <v>11.579414</v>
       </c>
       <c r="AV7" s="1">
-        <v>997.636000</v>
+        <v>997.63599999999997</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.820000</v>
+        <v>-108.82</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>41696.639137</v>
+        <v>41696.639136999998</v>
       </c>
       <c r="AZ7" s="1">
-        <v>11.582400</v>
+        <v>11.5824</v>
       </c>
       <c r="BA7" s="1">
-        <v>1005.930000</v>
+        <v>1005.93</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.492000</v>
+        <v>-124.492</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>41707.310065</v>
+        <v>41707.310064999998</v>
       </c>
       <c r="BE7" s="1">
         <v>11.585364</v>
       </c>
       <c r="BF7" s="1">
-        <v>1044.370000</v>
+        <v>1044.3699999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-196.600000</v>
+        <v>-196.6</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>41718.129795</v>
+        <v>41718.129795000001</v>
       </c>
       <c r="BJ7" s="1">
         <v>11.588369</v>
       </c>
       <c r="BK7" s="1">
-        <v>1110.540000</v>
+        <v>1110.54</v>
       </c>
       <c r="BL7" s="1">
-        <v>-314.132000</v>
+        <v>-314.13200000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>41729.372612</v>
+        <v>41729.372611999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>11.591492</v>
+        <v>11.591492000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1218.420000</v>
+        <v>1218.42</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-500.068000</v>
+        <v>-500.06799999999998</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>41741.094567</v>
       </c>
       <c r="BT7" s="1">
-        <v>11.594748</v>
+        <v>11.594747999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1339.870000</v>
+        <v>1339.87</v>
       </c>
       <c r="BV7" s="1">
-        <v>-704.401000</v>
+        <v>-704.40099999999995</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>41752.212011</v>
+        <v>41752.212011000003</v>
       </c>
       <c r="BY7" s="1">
         <v>11.597837</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1476.920000</v>
+        <v>1476.92</v>
       </c>
       <c r="CA7" s="1">
-        <v>-922.640000</v>
+        <v>-922.64</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>41764.146666</v>
+        <v>41764.146666000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>11.601152</v>
+        <v>11.601152000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1836.450000</v>
+        <v>1836.45</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1442.110000</v>
+        <v>-1442.11</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>41591.382659</v>
+        <v>41591.382659000003</v>
       </c>
       <c r="B8" s="1">
         <v>11.553162</v>
       </c>
       <c r="C8" s="1">
-        <v>908.818000</v>
+        <v>908.81799999999998</v>
       </c>
       <c r="D8" s="1">
-        <v>-179.664000</v>
+        <v>-179.66399999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>41601.501043</v>
+        <v>41601.501042999997</v>
       </c>
       <c r="G8" s="1">
         <v>11.555973</v>
       </c>
       <c r="H8" s="1">
-        <v>923.781000</v>
+        <v>923.78099999999995</v>
       </c>
       <c r="I8" s="1">
-        <v>-153.635000</v>
+        <v>-153.63499999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>41611.961664</v>
+        <v>41611.961664000002</v>
       </c>
       <c r="L8" s="1">
         <v>11.558878</v>
       </c>
       <c r="M8" s="1">
-        <v>944.465000</v>
+        <v>944.46500000000003</v>
       </c>
       <c r="N8" s="1">
-        <v>-111.690000</v>
+        <v>-111.69</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>41622.507606</v>
+        <v>41622.507605999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>11.561808</v>
+        <v>11.561807999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>951.294000</v>
+        <v>951.29399999999998</v>
       </c>
       <c r="S8" s="1">
-        <v>-98.040800</v>
+        <v>-98.040800000000004</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>41633.035157</v>
+        <v>41633.035156999998</v>
       </c>
       <c r="V8" s="1">
-        <v>11.564732</v>
+        <v>11.564731999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>958.347000</v>
+        <v>958.34699999999998</v>
       </c>
       <c r="X8" s="1">
-        <v>-85.260500</v>
+        <v>-85.260499999999993</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>41643.456102</v>
+        <v>41643.456101999996</v>
       </c>
       <c r="AA8" s="1">
         <v>11.567627</v>
       </c>
       <c r="AB8" s="1">
-        <v>966.296000</v>
+        <v>966.29600000000005</v>
       </c>
       <c r="AC8" s="1">
-        <v>-75.970300</v>
+        <v>-75.970299999999995</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>41654.062552</v>
+        <v>41654.062552000003</v>
       </c>
       <c r="AF8" s="1">
         <v>11.570573</v>
       </c>
       <c r="AG8" s="1">
-        <v>971.607000</v>
+        <v>971.60699999999997</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.339300</v>
+        <v>-74.339299999999994</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>41664.477548</v>
+        <v>41664.477548000003</v>
       </c>
       <c r="AK8" s="1">
         <v>11.573466</v>
       </c>
       <c r="AL8" s="1">
-        <v>979.392000</v>
+        <v>979.39200000000005</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.419200</v>
+        <v>-79.419200000000004</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>41675.177772</v>
+        <v>41675.177772000003</v>
       </c>
       <c r="AP8" s="1">
         <v>11.576438</v>
       </c>
       <c r="AQ8" s="1">
-        <v>987.693000</v>
+        <v>987.69299999999998</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.121500</v>
+        <v>-91.121499999999997</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>41686.251951</v>
+        <v>41686.251950999998</v>
       </c>
       <c r="AU8" s="1">
         <v>11.579514</v>
       </c>
       <c r="AV8" s="1">
-        <v>997.600000</v>
+        <v>997.6</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.827000</v>
+        <v>-108.827</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>41697.002705</v>
+        <v>41697.002704999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>11.582501</v>
+        <v>11.582501000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1005.930000</v>
+        <v>1005.93</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.501000</v>
+        <v>-124.501</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>41707.670690</v>
+        <v>41707.670689999999</v>
       </c>
       <c r="BE8" s="1">
         <v>11.585464</v>
       </c>
       <c r="BF8" s="1">
-        <v>1044.360000</v>
+        <v>1044.3599999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-196.608000</v>
+        <v>-196.608</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>41718.880242</v>
+        <v>41718.880241999999</v>
       </c>
       <c r="BJ8" s="1">
         <v>11.588578</v>
       </c>
       <c r="BK8" s="1">
-        <v>1110.580000</v>
+        <v>1110.58</v>
       </c>
       <c r="BL8" s="1">
-        <v>-314.142000</v>
+        <v>-314.142</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>41729.788788</v>
+        <v>41729.788787999998</v>
       </c>
       <c r="BO8" s="1">
-        <v>11.591608</v>
+        <v>11.591608000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1218.400000</v>
+        <v>1218.4000000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-500.105000</v>
+        <v>-500.10500000000002</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>41741.434325</v>
+        <v>41741.434325000002</v>
       </c>
       <c r="BT8" s="1">
-        <v>11.594843</v>
+        <v>11.594842999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1339.940000</v>
+        <v>1339.94</v>
       </c>
       <c r="BV8" s="1">
-        <v>-704.381000</v>
+        <v>-704.38099999999997</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>41752.669740</v>
+        <v>41752.669739999998</v>
       </c>
       <c r="BY8" s="1">
-        <v>11.597964</v>
+        <v>11.597963999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1476.930000</v>
+        <v>1476.93</v>
       </c>
       <c r="CA8" s="1">
-        <v>-922.710000</v>
+        <v>-922.71</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>41765.004246</v>
+        <v>41765.004245999997</v>
       </c>
       <c r="CD8" s="1">
-        <v>11.601390</v>
+        <v>11.60139</v>
       </c>
       <c r="CE8" s="1">
-        <v>1836.600000</v>
+        <v>1836.6</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1440.760000</v>
+        <v>-1440.76</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>41591.758090</v>
+        <v>41591.758090000003</v>
       </c>
       <c r="B9" s="1">
-        <v>11.553266</v>
+        <v>11.553266000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>908.935000</v>
+        <v>908.93499999999995</v>
       </c>
       <c r="D9" s="1">
-        <v>-179.533000</v>
+        <v>-179.53299999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>41601.848205</v>
+        <v>41601.848205000002</v>
       </c>
       <c r="G9" s="1">
-        <v>11.556069</v>
+        <v>11.556069000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>923.251000</v>
+        <v>923.25099999999998</v>
       </c>
       <c r="I9" s="1">
-        <v>-152.682000</v>
+        <v>-152.68199999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>41612.310357</v>
+        <v>41612.310357000002</v>
       </c>
       <c r="L9" s="1">
         <v>11.558975</v>
       </c>
       <c r="M9" s="1">
-        <v>944.525000</v>
+        <v>944.52499999999998</v>
       </c>
       <c r="N9" s="1">
-        <v>-111.801000</v>
+        <v>-111.801</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>41622.856257</v>
+        <v>41622.856256999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>11.561905</v>
+        <v>11.561904999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>951.281000</v>
+        <v>951.28099999999995</v>
       </c>
       <c r="S9" s="1">
-        <v>-98.028500</v>
+        <v>-98.028499999999994</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>41633.462744</v>
+        <v>41633.462743999997</v>
       </c>
       <c r="V9" s="1">
-        <v>11.564851</v>
+        <v>11.564851000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>958.362000</v>
+        <v>958.36199999999997</v>
       </c>
       <c r="X9" s="1">
-        <v>-85.257100</v>
+        <v>-85.257099999999994</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>41643.890141</v>
+        <v>41643.890141000003</v>
       </c>
       <c r="AA9" s="1">
-        <v>11.567747</v>
+        <v>11.567747000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>966.330000</v>
+        <v>966.33</v>
       </c>
       <c r="AC9" s="1">
-        <v>-75.904400</v>
+        <v>-75.904399999999995</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>41654.328409</v>
+        <v>41654.328409000002</v>
       </c>
       <c r="AF9" s="1">
-        <v>11.570647</v>
+        <v>11.570646999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>971.592000</v>
+        <v>971.59199999999998</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.369500</v>
+        <v>-74.369500000000002</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>41664.826235</v>
@@ -2385,408 +2801,408 @@
         <v>11.573563</v>
       </c>
       <c r="AL9" s="1">
-        <v>979.402000</v>
+        <v>979.40200000000004</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.415700</v>
+        <v>-79.415700000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>41675.538829</v>
+        <v>41675.538828999997</v>
       </c>
       <c r="AP9" s="1">
         <v>11.576539</v>
       </c>
       <c r="AQ9" s="1">
-        <v>987.712000</v>
+        <v>987.71199999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.103300</v>
+        <v>-91.103300000000004</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>41686.617762</v>
+        <v>41686.617762000002</v>
       </c>
       <c r="AU9" s="1">
         <v>11.579616</v>
       </c>
       <c r="AV9" s="1">
-        <v>997.628000</v>
+        <v>997.62800000000004</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.820000</v>
+        <v>-108.82</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>41697.724415</v>
+        <v>41697.724414999997</v>
       </c>
       <c r="AZ9" s="1">
         <v>11.582701</v>
       </c>
       <c r="BA9" s="1">
-        <v>1005.940000</v>
+        <v>1005.94</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.463000</v>
+        <v>-124.46299999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>41708.398992</v>
+        <v>41708.398992000002</v>
       </c>
       <c r="BE9" s="1">
         <v>11.585666</v>
       </c>
       <c r="BF9" s="1">
-        <v>1044.380000</v>
+        <v>1044.3800000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-196.623000</v>
+        <v>-196.62299999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>41719.255713</v>
+        <v>41719.255712999999</v>
       </c>
       <c r="BJ9" s="1">
         <v>11.588682</v>
       </c>
       <c r="BK9" s="1">
-        <v>1110.590000</v>
+        <v>1110.5899999999999</v>
       </c>
       <c r="BL9" s="1">
-        <v>-314.145000</v>
+        <v>-314.14499999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>41730.187044</v>
+        <v>41730.187043999998</v>
       </c>
       <c r="BO9" s="1">
-        <v>11.591719</v>
+        <v>11.591718999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1218.410000</v>
+        <v>1218.4100000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-500.082000</v>
+        <v>-500.08199999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>41742.178820</v>
+        <v>41742.178820000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>11.595050</v>
+        <v>11.595050000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1339.980000</v>
+        <v>1339.98</v>
       </c>
       <c r="BV9" s="1">
-        <v>-704.332000</v>
+        <v>-704.33199999999999</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>41753.430605</v>
+        <v>41753.430605000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>11.598175</v>
+        <v>11.598174999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1476.920000</v>
+        <v>1476.92</v>
       </c>
       <c r="CA9" s="1">
-        <v>-922.673000</v>
+        <v>-922.673</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>41765.225956</v>
+        <v>41765.225956000002</v>
       </c>
       <c r="CD9" s="1">
         <v>11.601452</v>
       </c>
       <c r="CE9" s="1">
-        <v>1836.520000</v>
+        <v>1836.52</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1440.830000</v>
+        <v>-1440.83</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>41592.102817</v>
+        <v>41592.102816999999</v>
       </c>
       <c r="B10" s="1">
         <v>11.553362</v>
       </c>
       <c r="C10" s="1">
-        <v>908.847000</v>
+        <v>908.84699999999998</v>
       </c>
       <c r="D10" s="1">
-        <v>-179.569000</v>
+        <v>-179.56899999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>41602.192925</v>
+        <v>41602.192925000003</v>
       </c>
       <c r="G10" s="1">
         <v>11.556165</v>
       </c>
       <c r="H10" s="1">
-        <v>923.760000</v>
+        <v>923.76</v>
       </c>
       <c r="I10" s="1">
-        <v>-153.255000</v>
+        <v>-153.255</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>41612.742831</v>
+        <v>41612.742831000003</v>
       </c>
       <c r="L10" s="1">
-        <v>11.559095</v>
+        <v>11.559094999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>944.580000</v>
+        <v>944.58</v>
       </c>
       <c r="N10" s="1">
-        <v>-111.751000</v>
+        <v>-111.751</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>41623.279840</v>
+        <v>41623.279840000003</v>
       </c>
       <c r="Q10" s="1">
-        <v>11.562022</v>
+        <v>11.562022000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>951.292000</v>
+        <v>951.29200000000003</v>
       </c>
       <c r="S10" s="1">
-        <v>-98.047400</v>
+        <v>-98.047399999999996</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>41633.733028</v>
+        <v>41633.733028000002</v>
       </c>
       <c r="V10" s="1">
         <v>11.564926</v>
       </c>
       <c r="W10" s="1">
-        <v>958.350000</v>
+        <v>958.35</v>
       </c>
       <c r="X10" s="1">
-        <v>-85.413900</v>
+        <v>-85.413899999999998</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>41644.138102</v>
+        <v>41644.138101999997</v>
       </c>
       <c r="AA10" s="1">
-        <v>11.567816</v>
+        <v>11.567816000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>966.333000</v>
+        <v>966.33299999999997</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.021000</v>
+        <v>-76.021000000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>41654.674652</v>
+        <v>41654.674652000002</v>
       </c>
       <c r="AF10" s="1">
         <v>11.570743</v>
       </c>
       <c r="AG10" s="1">
-        <v>971.577000</v>
+        <v>971.577</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.353500</v>
+        <v>-74.353499999999997</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>41665.177402</v>
+        <v>41665.177402000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>11.573660</v>
+        <v>11.57366</v>
       </c>
       <c r="AL10" s="1">
-        <v>979.371000</v>
+        <v>979.37099999999998</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.443000</v>
+        <v>-79.442999999999998</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>41675.897473</v>
+        <v>41675.897472999997</v>
       </c>
       <c r="AP10" s="1">
-        <v>11.576638</v>
+        <v>11.576638000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>987.730000</v>
+        <v>987.73</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.119600</v>
+        <v>-91.119600000000005</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>41687.344646</v>
+        <v>41687.344645999998</v>
       </c>
       <c r="AU10" s="1">
         <v>11.579818</v>
       </c>
       <c r="AV10" s="1">
-        <v>997.669000</v>
+        <v>997.66899999999998</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.832000</v>
+        <v>-108.83199999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>41698.100847</v>
+        <v>41698.100847000002</v>
       </c>
       <c r="AZ10" s="1">
         <v>11.582806</v>
       </c>
       <c r="BA10" s="1">
-        <v>1005.980000</v>
+        <v>1005.98</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.428000</v>
+        <v>-124.428</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>41708.774752</v>
+        <v>41708.774751999998</v>
       </c>
       <c r="BE10" s="1">
-        <v>11.585771</v>
+        <v>11.585770999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1044.400000</v>
+        <v>1044.4000000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-196.605000</v>
+        <v>-196.60499999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>41719.630690</v>
+        <v>41719.630689999998</v>
       </c>
       <c r="BJ10" s="1">
-        <v>11.588786</v>
+        <v>11.588786000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1110.580000</v>
+        <v>1110.58</v>
       </c>
       <c r="BL10" s="1">
-        <v>-314.152000</v>
+        <v>-314.15199999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>41730.919174</v>
+        <v>41730.919174000002</v>
       </c>
       <c r="BO10" s="1">
         <v>11.591922</v>
       </c>
       <c r="BP10" s="1">
-        <v>1218.370000</v>
+        <v>1218.3699999999999</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-500.068000</v>
+        <v>-500.06799999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>41742.304307</v>
+        <v>41742.304306999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>11.595085</v>
+        <v>11.595084999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1340.000000</v>
+        <v>1340</v>
       </c>
       <c r="BV10" s="1">
-        <v>-704.278000</v>
+        <v>-704.27800000000002</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>41753.569452</v>
+        <v>41753.569452000003</v>
       </c>
       <c r="BY10" s="1">
         <v>11.598214</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1476.950000</v>
+        <v>1476.95</v>
       </c>
       <c r="CA10" s="1">
-        <v>-922.691000</v>
+        <v>-922.69100000000003</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>41765.741765</v>
+        <v>41765.741764999999</v>
       </c>
       <c r="CD10" s="1">
         <v>11.601595</v>
       </c>
       <c r="CE10" s="1">
-        <v>1836.130000</v>
+        <v>1836.13</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1441.930000</v>
+        <v>-1441.93</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>41592.443562</v>
       </c>
@@ -2794,223 +3210,223 @@
         <v>11.553457</v>
       </c>
       <c r="C11" s="1">
-        <v>909.083000</v>
+        <v>909.08299999999997</v>
       </c>
       <c r="D11" s="1">
-        <v>-179.594000</v>
+        <v>-179.59399999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>41602.616012</v>
+        <v>41602.616011999999</v>
       </c>
       <c r="G11" s="1">
-        <v>11.556282</v>
+        <v>11.556281999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>923.627000</v>
+        <v>923.62699999999995</v>
       </c>
       <c r="I11" s="1">
-        <v>-153.374000</v>
+        <v>-153.374</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>41613.021086</v>
+        <v>41613.021086000001</v>
       </c>
       <c r="L11" s="1">
-        <v>11.559173</v>
+        <v>11.559172999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>944.512000</v>
+        <v>944.51199999999994</v>
       </c>
       <c r="N11" s="1">
-        <v>-111.751000</v>
+        <v>-111.751</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>41623.559584</v>
+        <v>41623.559584000002</v>
       </c>
       <c r="Q11" s="1">
-        <v>11.562100</v>
+        <v>11.562099999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>951.319000</v>
+        <v>951.31899999999996</v>
       </c>
       <c r="S11" s="1">
-        <v>-98.084000</v>
+        <v>-98.084000000000003</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>41634.077746</v>
+        <v>41634.077746000003</v>
       </c>
       <c r="V11" s="1">
-        <v>11.565022</v>
+        <v>11.565022000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>958.330000</v>
+        <v>958.33</v>
       </c>
       <c r="X11" s="1">
-        <v>-85.189200</v>
+        <v>-85.1892</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>41644.499220</v>
+        <v>41644.499219999998</v>
       </c>
       <c r="AA11" s="1">
         <v>11.567916</v>
       </c>
       <c r="AB11" s="1">
-        <v>966.317000</v>
+        <v>966.31700000000001</v>
       </c>
       <c r="AC11" s="1">
-        <v>-75.975100</v>
+        <v>-75.975099999999998</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>41655.017878</v>
+        <v>41655.017877999999</v>
       </c>
       <c r="AF11" s="1">
         <v>11.570838</v>
       </c>
       <c r="AG11" s="1">
-        <v>971.580000</v>
+        <v>971.58</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.350000</v>
+        <v>-74.349999999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>41665.870840</v>
+        <v>41665.870840000003</v>
       </c>
       <c r="AK11" s="1">
         <v>11.573853</v>
       </c>
       <c r="AL11" s="1">
-        <v>979.400000</v>
+        <v>979.4</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.454000</v>
+        <v>-79.453999999999994</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>41676.617130</v>
+        <v>41676.617129999999</v>
       </c>
       <c r="AP11" s="1">
         <v>11.576838</v>
       </c>
       <c r="AQ11" s="1">
-        <v>987.718000</v>
+        <v>987.71799999999996</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.137500</v>
+        <v>-91.137500000000003</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>41687.738460</v>
+        <v>41687.73846</v>
       </c>
       <c r="AU11" s="1">
         <v>11.579927</v>
       </c>
       <c r="AV11" s="1">
-        <v>997.648000</v>
+        <v>997.64800000000002</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.826000</v>
+        <v>-108.82599999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>41698.477807</v>
+        <v>41698.477807000003</v>
       </c>
       <c r="AZ11" s="1">
-        <v>11.582911</v>
+        <v>11.582910999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1005.960000</v>
+        <v>1005.96</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.423000</v>
+        <v>-124.423</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>41709.455263</v>
+        <v>41709.455263000003</v>
       </c>
       <c r="BE11" s="1">
-        <v>11.585960</v>
+        <v>11.58596</v>
       </c>
       <c r="BF11" s="1">
-        <v>1044.390000</v>
+        <v>1044.3900000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-196.593000</v>
+        <v>-196.59299999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>41720.319634</v>
+        <v>41720.319633999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>11.588978</v>
+        <v>11.588977999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1110.560000</v>
+        <v>1110.56</v>
       </c>
       <c r="BL11" s="1">
-        <v>-314.180000</v>
+        <v>-314.18</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>41731.033251</v>
+        <v>41731.033251000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>11.591954</v>
+        <v>11.591953999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1218.360000</v>
+        <v>1218.3599999999999</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-500.067000</v>
+        <v>-500.06700000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>41742.719956</v>
+        <v>41742.719956000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>11.595200</v>
+        <v>11.5952</v>
       </c>
       <c r="BU11" s="1">
-        <v>1340.030000</v>
+        <v>1340.03</v>
       </c>
       <c r="BV11" s="1">
-        <v>-704.224000</v>
+        <v>-704.22400000000005</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>41753.990585</v>
@@ -3019,392 +3435,392 @@
         <v>11.598331</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1476.790000</v>
+        <v>1476.79</v>
       </c>
       <c r="CA11" s="1">
-        <v>-922.594000</v>
+        <v>-922.59400000000005</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>41766.263556</v>
+        <v>41766.263555999998</v>
       </c>
       <c r="CD11" s="1">
-        <v>11.601740</v>
+        <v>11.601739999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1836.040000</v>
+        <v>1836.04</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1441.960000</v>
+        <v>-1441.96</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>41592.867673</v>
+        <v>41592.867673000001</v>
       </c>
       <c r="B12" s="1">
-        <v>11.553574</v>
+        <v>11.553573999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>908.878000</v>
+        <v>908.87800000000004</v>
       </c>
       <c r="D12" s="1">
-        <v>-179.622000</v>
+        <v>-179.62200000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>41602.881405</v>
       </c>
       <c r="G12" s="1">
-        <v>11.556356</v>
+        <v>11.556355999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>923.605000</v>
+        <v>923.60500000000002</v>
       </c>
       <c r="I12" s="1">
-        <v>-152.872000</v>
+        <v>-152.87200000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>41613.366303</v>
+        <v>41613.366303000003</v>
       </c>
       <c r="L12" s="1">
-        <v>11.559268</v>
+        <v>11.559267999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>944.541000</v>
+        <v>944.54100000000005</v>
       </c>
       <c r="N12" s="1">
-        <v>-111.743000</v>
+        <v>-111.74299999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>41623.908309</v>
+        <v>41623.908308999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>11.562197</v>
+        <v>11.562196999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>951.298000</v>
+        <v>951.298</v>
       </c>
       <c r="S12" s="1">
-        <v>-98.084100</v>
+        <v>-98.084100000000007</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>41634.420979</v>
+        <v>41634.420979000002</v>
       </c>
       <c r="V12" s="1">
-        <v>11.565117</v>
+        <v>11.565117000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>958.282000</v>
+        <v>958.28200000000004</v>
       </c>
       <c r="X12" s="1">
-        <v>-85.288000</v>
+        <v>-85.287999999999997</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>41645.194084</v>
+        <v>41645.194084000002</v>
       </c>
       <c r="AA12" s="1">
         <v>11.568109</v>
       </c>
       <c r="AB12" s="1">
-        <v>966.341000</v>
+        <v>966.34100000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-75.978100</v>
+        <v>-75.978099999999998</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>41655.700870</v>
+        <v>41655.700870000001</v>
       </c>
       <c r="AF12" s="1">
         <v>11.571028</v>
       </c>
       <c r="AG12" s="1">
-        <v>971.573000</v>
+        <v>971.57299999999998</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.373800</v>
+        <v>-74.373800000000003</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>41666.221480</v>
+        <v>41666.22148</v>
       </c>
       <c r="AK12" s="1">
-        <v>11.573950</v>
+        <v>11.57395</v>
       </c>
       <c r="AL12" s="1">
-        <v>979.407000</v>
+        <v>979.40700000000004</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.407400</v>
+        <v>-79.407399999999996</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>41676.977227</v>
+        <v>41676.977227000003</v>
       </c>
       <c r="AP12" s="1">
         <v>11.576938</v>
       </c>
       <c r="AQ12" s="1">
-        <v>987.741000</v>
+        <v>987.74099999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.120800</v>
+        <v>-91.120800000000003</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>41688.101061</v>
+        <v>41688.101061000001</v>
       </c>
       <c r="AU12" s="1">
         <v>11.580028</v>
       </c>
       <c r="AV12" s="1">
-        <v>997.645000</v>
+        <v>997.64499999999998</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.834000</v>
+        <v>-108.834</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>41699.164764</v>
+        <v>41699.164764000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>11.583101</v>
+        <v>11.583100999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1005.980000</v>
+        <v>1005.98</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.433000</v>
+        <v>-124.43300000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>41709.860496</v>
+        <v>41709.860496000001</v>
       </c>
       <c r="BE12" s="1">
         <v>11.586072</v>
       </c>
       <c r="BF12" s="1">
-        <v>1044.400000</v>
+        <v>1044.4000000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-196.616000</v>
+        <v>-196.61600000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>41720.757601</v>
+        <v>41720.757600999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>11.589099</v>
+        <v>11.589098999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1110.570000</v>
+        <v>1110.57</v>
       </c>
       <c r="BL12" s="1">
-        <v>-314.105000</v>
+        <v>-314.10500000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>41731.428562</v>
+        <v>41731.428562000001</v>
       </c>
       <c r="BO12" s="1">
         <v>11.592063</v>
       </c>
       <c r="BP12" s="1">
-        <v>1218.400000</v>
+        <v>1218.4000000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-500.093000</v>
+        <v>-500.09300000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>41743.146018</v>
+        <v>41743.146017999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>11.595318</v>
+        <v>11.595318000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1340.090000</v>
+        <v>1340.09</v>
       </c>
       <c r="BV12" s="1">
-        <v>-704.272000</v>
+        <v>-704.27200000000005</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>41754.414627</v>
+        <v>41754.414626999998</v>
       </c>
       <c r="BY12" s="1">
         <v>11.598449</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1476.810000</v>
+        <v>1476.81</v>
       </c>
       <c r="CA12" s="1">
-        <v>-922.764000</v>
+        <v>-922.76400000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>41766.820564</v>
+        <v>41766.820564000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>11.601895</v>
+        <v>11.601895000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1836.260000</v>
+        <v>1836.26</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1440.900000</v>
+        <v>-1440.9</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>41593.141930</v>
+        <v>41593.141929999998</v>
       </c>
       <c r="B13" s="1">
         <v>11.553651</v>
       </c>
       <c r="C13" s="1">
-        <v>908.799000</v>
+        <v>908.79899999999998</v>
       </c>
       <c r="D13" s="1">
-        <v>-179.643000</v>
+        <v>-179.643</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>41603.230555</v>
+        <v>41603.230555000002</v>
       </c>
       <c r="G13" s="1">
-        <v>11.556453</v>
+        <v>11.556452999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>923.644000</v>
+        <v>923.64400000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-153.230000</v>
+        <v>-153.22999999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>41613.711021</v>
+        <v>41613.711021000003</v>
       </c>
       <c r="L13" s="1">
         <v>11.559364</v>
       </c>
       <c r="M13" s="1">
-        <v>944.399000</v>
+        <v>944.399</v>
       </c>
       <c r="N13" s="1">
-        <v>-111.803000</v>
+        <v>-111.803</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>41624.256718</v>
+        <v>41624.256717999997</v>
       </c>
       <c r="Q13" s="1">
         <v>11.562294</v>
       </c>
       <c r="R13" s="1">
-        <v>951.263000</v>
+        <v>951.26300000000003</v>
       </c>
       <c r="S13" s="1">
-        <v>-98.051000</v>
+        <v>-98.051000000000002</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>41635.113920</v>
+        <v>41635.113920000003</v>
       </c>
       <c r="V13" s="1">
-        <v>11.565309</v>
+        <v>11.565308999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>958.351000</v>
+        <v>958.351</v>
       </c>
       <c r="X13" s="1">
-        <v>-85.334500</v>
+        <v>-85.334500000000006</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>41645.540324</v>
+        <v>41645.540324000001</v>
       </c>
       <c r="AA13" s="1">
         <v>11.568206</v>
       </c>
       <c r="AB13" s="1">
-        <v>966.373000</v>
+        <v>966.37300000000005</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.031800</v>
+        <v>-76.031800000000004</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>41656.048072</v>
+        <v>41656.048071999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>11.571124</v>
+        <v>11.571123999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>971.585000</v>
+        <v>971.58500000000004</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.286800</v>
+        <v>-74.286799999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>41666.569441</v>
@@ -3413,13 +3829,13 @@
         <v>11.574047</v>
       </c>
       <c r="AL13" s="1">
-        <v>979.409000</v>
+        <v>979.40899999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.421200</v>
+        <v>-79.421199999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>41677.647352</v>
@@ -3428,270 +3844,270 @@
         <v>11.577124</v>
       </c>
       <c r="AQ13" s="1">
-        <v>987.720000</v>
+        <v>987.72</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.130600</v>
+        <v>-91.130600000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>41688.782046</v>
       </c>
       <c r="AU13" s="1">
-        <v>11.580217</v>
+        <v>11.580216999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>997.631000</v>
+        <v>997.63099999999997</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.805000</v>
+        <v>-108.80500000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>41699.562588</v>
+        <v>41699.562588000001</v>
       </c>
       <c r="AZ13" s="1">
         <v>11.583212</v>
       </c>
       <c r="BA13" s="1">
-        <v>1005.970000</v>
+        <v>1005.97</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.420000</v>
+        <v>-124.42</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>41710.249856</v>
+        <v>41710.249856000002</v>
       </c>
       <c r="BE13" s="1">
         <v>11.586181</v>
       </c>
       <c r="BF13" s="1">
-        <v>1044.380000</v>
+        <v>1044.3800000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-196.621000</v>
+        <v>-196.62100000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>41721.133597</v>
       </c>
       <c r="BJ13" s="1">
-        <v>11.589204</v>
+        <v>11.589204000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1110.560000</v>
+        <v>1110.56</v>
       </c>
       <c r="BL13" s="1">
-        <v>-314.152000</v>
+        <v>-314.15199999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>41731.852644</v>
+        <v>41731.852643999999</v>
       </c>
       <c r="BO13" s="1">
         <v>11.592181</v>
       </c>
       <c r="BP13" s="1">
-        <v>1218.370000</v>
+        <v>1218.3699999999999</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-500.066000</v>
+        <v>-500.06599999999997</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>41743.564641</v>
+        <v>41743.564640999997</v>
       </c>
       <c r="BT13" s="1">
         <v>11.595435</v>
       </c>
       <c r="BU13" s="1">
-        <v>1340.110000</v>
+        <v>1340.11</v>
       </c>
       <c r="BV13" s="1">
-        <v>-704.233000</v>
+        <v>-704.23299999999995</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>41754.834243</v>
+        <v>41754.834242999998</v>
       </c>
       <c r="BY13" s="1">
-        <v>11.598565</v>
+        <v>11.598565000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1476.900000</v>
+        <v>1476.9</v>
       </c>
       <c r="CA13" s="1">
-        <v>-922.826000</v>
+        <v>-922.82600000000002</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>41767.332932</v>
+        <v>41767.332931999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>11.602037</v>
+        <v>11.602036999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1836.390000</v>
+        <v>1836.39</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1442.080000</v>
+        <v>-1442.08</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>41593.484200</v>
+        <v>41593.484199999999</v>
       </c>
       <c r="B14" s="1">
         <v>11.553746</v>
       </c>
       <c r="C14" s="1">
-        <v>908.818000</v>
+        <v>908.81799999999998</v>
       </c>
       <c r="D14" s="1">
-        <v>-179.599000</v>
+        <v>-179.59899999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>41603.569820</v>
+        <v>41603.569819999997</v>
       </c>
       <c r="G14" s="1">
         <v>11.556547</v>
       </c>
       <c r="H14" s="1">
-        <v>923.500000</v>
+        <v>923.5</v>
       </c>
       <c r="I14" s="1">
-        <v>-153.051000</v>
+        <v>-153.05099999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>41614.409886</v>
+        <v>41614.409886000001</v>
       </c>
       <c r="L14" s="1">
-        <v>11.559558</v>
+        <v>11.559558000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>944.368000</v>
+        <v>944.36800000000005</v>
       </c>
       <c r="N14" s="1">
-        <v>-111.744000</v>
+        <v>-111.744</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>41624.952846</v>
       </c>
       <c r="Q14" s="1">
-        <v>11.562487</v>
+        <v>11.562487000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>951.286000</v>
+        <v>951.28599999999994</v>
       </c>
       <c r="S14" s="1">
-        <v>-98.010100</v>
+        <v>-98.010099999999994</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>41635.459105</v>
+        <v>41635.459105000002</v>
       </c>
       <c r="V14" s="1">
         <v>11.565405</v>
       </c>
       <c r="W14" s="1">
-        <v>958.387000</v>
+        <v>958.38699999999994</v>
       </c>
       <c r="X14" s="1">
-        <v>-85.123100</v>
+        <v>-85.123099999999994</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>41645.891460</v>
+        <v>41645.891459999999</v>
       </c>
       <c r="AA14" s="1">
         <v>11.568303</v>
       </c>
       <c r="AB14" s="1">
-        <v>966.297000</v>
+        <v>966.29700000000003</v>
       </c>
       <c r="AC14" s="1">
-        <v>-75.988300</v>
+        <v>-75.988299999999995</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>41656.393253</v>
+        <v>41656.393253000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>11.571220</v>
+        <v>11.57122</v>
       </c>
       <c r="AG14" s="1">
-        <v>971.585000</v>
+        <v>971.58500000000004</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.378700</v>
+        <v>-74.378699999999995</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>41667.238776</v>
+        <v>41667.238775999998</v>
       </c>
       <c r="AK14" s="1">
         <v>11.574233</v>
       </c>
       <c r="AL14" s="1">
-        <v>979.376000</v>
+        <v>979.37599999999998</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.424300</v>
+        <v>-79.424300000000002</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>41678.086314</v>
       </c>
       <c r="AP14" s="1">
-        <v>11.577246</v>
+        <v>11.577246000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>987.708000</v>
+        <v>987.70799999999997</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.141300</v>
+        <v>-91.141300000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>41689.199642</v>
@@ -3700,315 +4116,315 @@
         <v>11.580333</v>
       </c>
       <c r="AV14" s="1">
-        <v>997.658000</v>
+        <v>997.65800000000002</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.832000</v>
+        <v>-108.83199999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>41699.939021</v>
+        <v>41699.939020999998</v>
       </c>
       <c r="AZ14" s="1">
         <v>11.583316</v>
       </c>
       <c r="BA14" s="1">
-        <v>1005.970000</v>
+        <v>1005.97</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.434000</v>
+        <v>-124.434</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>41710.632146</v>
+        <v>41710.632146000004</v>
       </c>
       <c r="BE14" s="1">
         <v>11.586287</v>
       </c>
       <c r="BF14" s="1">
-        <v>1044.410000</v>
+        <v>1044.4100000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-196.579000</v>
+        <v>-196.57900000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>41721.507087</v>
+        <v>41721.507086999998</v>
       </c>
       <c r="BJ14" s="1">
-        <v>11.589308</v>
+        <v>11.589308000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1110.570000</v>
+        <v>1110.57</v>
       </c>
       <c r="BL14" s="1">
-        <v>-314.160000</v>
+        <v>-314.16000000000003</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>41732.282144</v>
+        <v>41732.282143999997</v>
       </c>
       <c r="BO14" s="1">
-        <v>11.592301</v>
+        <v>11.592301000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1218.330000</v>
+        <v>1218.33</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-500.111000</v>
+        <v>-500.11099999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>41743.976828</v>
+        <v>41743.976827999999</v>
       </c>
       <c r="BT14" s="1">
         <v>11.595549</v>
       </c>
       <c r="BU14" s="1">
-        <v>1340.170000</v>
+        <v>1340.17</v>
       </c>
       <c r="BV14" s="1">
-        <v>-704.160000</v>
+        <v>-704.16</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>41755.282659</v>
+        <v>41755.282658999997</v>
       </c>
       <c r="BY14" s="1">
-        <v>11.598690</v>
+        <v>11.59869</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1476.990000</v>
+        <v>1476.99</v>
       </c>
       <c r="CA14" s="1">
-        <v>-922.730000</v>
+        <v>-922.73</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>41767.862194</v>
+        <v>41767.862194000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>11.602184</v>
+        <v>11.602183999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1837.770000</v>
+        <v>1837.77</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1441.490000</v>
+        <v>-1441.49</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>41593.834376</v>
+        <v>41593.834375999999</v>
       </c>
       <c r="B15" s="1">
-        <v>11.553843</v>
+        <v>11.553843000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>908.895000</v>
+        <v>908.89499999999998</v>
       </c>
       <c r="D15" s="1">
-        <v>-179.643000</v>
+        <v>-179.643</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>41604.263754</v>
       </c>
       <c r="G15" s="1">
-        <v>11.556740</v>
+        <v>11.55674</v>
       </c>
       <c r="H15" s="1">
-        <v>923.581000</v>
+        <v>923.58100000000002</v>
       </c>
       <c r="I15" s="1">
-        <v>-153.294000</v>
+        <v>-153.29400000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>41614.757085</v>
+        <v>41614.757084999997</v>
       </c>
       <c r="L15" s="1">
-        <v>11.559655</v>
+        <v>11.559654999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>944.547000</v>
+        <v>944.54700000000003</v>
       </c>
       <c r="N15" s="1">
-        <v>-111.773000</v>
+        <v>-111.773</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>41625.303517</v>
       </c>
       <c r="Q15" s="1">
-        <v>11.562584</v>
+        <v>11.562583999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>951.292000</v>
+        <v>951.29200000000003</v>
       </c>
       <c r="S15" s="1">
-        <v>-97.958200</v>
+        <v>-97.958200000000005</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>41635.804320</v>
+        <v>41635.804320000003</v>
       </c>
       <c r="V15" s="1">
-        <v>11.565501</v>
+        <v>11.565500999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>958.339000</v>
+        <v>958.33900000000006</v>
       </c>
       <c r="X15" s="1">
-        <v>-85.215000</v>
+        <v>-85.215000000000003</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>41646.562578</v>
+        <v>41646.562577999997</v>
       </c>
       <c r="AA15" s="1">
-        <v>11.568490</v>
+        <v>11.568490000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>966.409000</v>
+        <v>966.40899999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.029500</v>
+        <v>-76.029499999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>41657.061365</v>
+        <v>41657.061365000001</v>
       </c>
       <c r="AF15" s="1">
         <v>11.571406</v>
       </c>
       <c r="AG15" s="1">
-        <v>971.594000</v>
+        <v>971.59400000000005</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.333700</v>
+        <v>-74.333699999999993</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>41667.614246</v>
+        <v>41667.614245999997</v>
       </c>
       <c r="AK15" s="1">
         <v>11.574337</v>
       </c>
       <c r="AL15" s="1">
-        <v>979.387000</v>
+        <v>979.38699999999994</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.452200</v>
+        <v>-79.452200000000005</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>41678.444888</v>
+        <v>41678.444887999998</v>
       </c>
       <c r="AP15" s="1">
         <v>11.577346</v>
       </c>
       <c r="AQ15" s="1">
-        <v>987.735000</v>
+        <v>987.73500000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.116600</v>
+        <v>-91.116600000000005</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>41689.562745</v>
+        <v>41689.562745000003</v>
       </c>
       <c r="AU15" s="1">
         <v>11.580434</v>
       </c>
       <c r="AV15" s="1">
-        <v>997.680000</v>
+        <v>997.68</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.804000</v>
+        <v>-108.804</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>41700.318956</v>
+        <v>41700.318956000003</v>
       </c>
       <c r="AZ15" s="1">
-        <v>11.583422</v>
+        <v>11.583422000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1005.970000</v>
+        <v>1005.97</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.421000</v>
+        <v>-124.42100000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>41711.071261</v>
+        <v>41711.071260999997</v>
       </c>
       <c r="BE15" s="1">
         <v>11.586409</v>
       </c>
       <c r="BF15" s="1">
-        <v>1044.380000</v>
+        <v>1044.3800000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-196.623000</v>
+        <v>-196.62299999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>41721.939567</v>
+        <v>41721.939567000001</v>
       </c>
       <c r="BJ15" s="1">
         <v>11.589428</v>
       </c>
       <c r="BK15" s="1">
-        <v>1110.580000</v>
+        <v>1110.58</v>
       </c>
       <c r="BL15" s="1">
-        <v>-314.127000</v>
+        <v>-314.12700000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>41732.672498</v>
@@ -4017,210 +4433,210 @@
         <v>11.592409</v>
       </c>
       <c r="BP15" s="1">
-        <v>1218.370000</v>
+        <v>1218.3699999999999</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-500.091000</v>
+        <v>-500.09100000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>41744.393458</v>
+        <v>41744.393457999999</v>
       </c>
       <c r="BT15" s="1">
         <v>11.595665</v>
       </c>
       <c r="BU15" s="1">
-        <v>1340.240000</v>
+        <v>1340.24</v>
       </c>
       <c r="BV15" s="1">
-        <v>-704.290000</v>
+        <v>-704.29</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>41755.701746</v>
+        <v>41755.701745999999</v>
       </c>
       <c r="BY15" s="1">
         <v>11.598806</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1477.110000</v>
+        <v>1477.11</v>
       </c>
       <c r="CA15" s="1">
-        <v>-922.879000</v>
+        <v>-922.87900000000002</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>41768.404289</v>
+        <v>41768.404288999998</v>
       </c>
       <c r="CD15" s="1">
         <v>11.602335</v>
       </c>
       <c r="CE15" s="1">
-        <v>1835.890000</v>
+        <v>1835.89</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1441.020000</v>
+        <v>-1441.02</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>41594.530726</v>
+        <v>41594.530725999997</v>
       </c>
       <c r="B16" s="1">
         <v>11.554036</v>
       </c>
       <c r="C16" s="1">
-        <v>908.746000</v>
+        <v>908.74599999999998</v>
       </c>
       <c r="D16" s="1">
-        <v>-179.658000</v>
+        <v>-179.65799999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>41604.607947</v>
+        <v>41604.607946999997</v>
       </c>
       <c r="G16" s="1">
-        <v>11.556836</v>
+        <v>11.556836000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>923.685000</v>
+        <v>923.68499999999995</v>
       </c>
       <c r="I16" s="1">
-        <v>-153.108000</v>
+        <v>-153.108</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>41615.102796</v>
+        <v>41615.102795999999</v>
       </c>
       <c r="L16" s="1">
         <v>11.559751</v>
       </c>
       <c r="M16" s="1">
-        <v>944.562000</v>
+        <v>944.56200000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-111.798000</v>
+        <v>-111.798</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>41625.648766</v>
+        <v>41625.648765999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>11.562680</v>
+        <v>11.56268</v>
       </c>
       <c r="R16" s="1">
-        <v>951.309000</v>
+        <v>951.30899999999997</v>
       </c>
       <c r="S16" s="1">
-        <v>-98.018300</v>
+        <v>-98.018299999999996</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>41636.461055</v>
       </c>
       <c r="V16" s="1">
-        <v>11.565684</v>
+        <v>11.565683999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>958.413000</v>
+        <v>958.41300000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>-85.329700</v>
+        <v>-85.329700000000003</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>41646.937812</v>
+        <v>41646.937811999996</v>
       </c>
       <c r="AA16" s="1">
-        <v>11.568594</v>
+        <v>11.568593999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>966.346000</v>
+        <v>966.346</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.055300</v>
+        <v>-76.055300000000003</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>41657.428403</v>
+        <v>41657.428402999998</v>
       </c>
       <c r="AF16" s="1">
         <v>11.571508</v>
       </c>
       <c r="AG16" s="1">
-        <v>971.596000</v>
+        <v>971.596</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.351900</v>
+        <v>-74.351900000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>41667.965414</v>
+        <v>41667.965413999998</v>
       </c>
       <c r="AK16" s="1">
-        <v>11.574435</v>
+        <v>11.574434999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>979.383000</v>
+        <v>979.38300000000004</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.432600</v>
+        <v>-79.432599999999994</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>41678.809447</v>
       </c>
       <c r="AP16" s="1">
-        <v>11.577447</v>
+        <v>11.577446999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>987.717000</v>
+        <v>987.71699999999998</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.119600</v>
+        <v>-91.119600000000005</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>41689.924298</v>
+        <v>41689.924297999998</v>
       </c>
       <c r="AU16" s="1">
-        <v>11.580535</v>
+        <v>11.580534999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>997.677000</v>
+        <v>997.67700000000002</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.807000</v>
+        <v>-108.807</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>41700.752986</v>
@@ -4229,527 +4645,527 @@
         <v>11.583542</v>
       </c>
       <c r="BA16" s="1">
-        <v>1005.980000</v>
+        <v>1005.98</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.418000</v>
+        <v>-124.41800000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>41711.349980</v>
+        <v>41711.349979999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>11.586486</v>
+        <v>11.586486000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1044.390000</v>
+        <v>1044.3900000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-196.616000</v>
+        <v>-196.61600000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>41722.289278</v>
+        <v>41722.289277999997</v>
       </c>
       <c r="BJ16" s="1">
         <v>11.589525</v>
       </c>
       <c r="BK16" s="1">
-        <v>1110.570000</v>
+        <v>1110.57</v>
       </c>
       <c r="BL16" s="1">
-        <v>-314.144000</v>
+        <v>-314.14400000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>41733.069791</v>
+        <v>41733.069791000002</v>
       </c>
       <c r="BO16" s="1">
-        <v>11.592519</v>
+        <v>11.592518999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1218.400000</v>
+        <v>1218.4000000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-500.095000</v>
+        <v>-500.09500000000003</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>41744.822000</v>
+        <v>41744.822</v>
       </c>
       <c r="BT16" s="1">
         <v>11.595784</v>
       </c>
       <c r="BU16" s="1">
-        <v>1340.290000</v>
+        <v>1340.29</v>
       </c>
       <c r="BV16" s="1">
-        <v>-704.212000</v>
+        <v>-704.21199999999999</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>41756.376305</v>
+        <v>41756.376304999998</v>
       </c>
       <c r="BY16" s="1">
         <v>11.598993</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1476.960000</v>
+        <v>1476.96</v>
       </c>
       <c r="CA16" s="1">
-        <v>-922.785000</v>
+        <v>-922.78499999999997</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>41768.942450</v>
+        <v>41768.942450000002</v>
       </c>
       <c r="CD16" s="1">
         <v>11.602484</v>
       </c>
       <c r="CE16" s="1">
-        <v>1837.480000</v>
+        <v>1837.48</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1442.000000</v>
+        <v>-1442</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>41594.881398</v>
+        <v>41594.881397999998</v>
       </c>
       <c r="B17" s="1">
-        <v>11.554134</v>
+        <v>11.554133999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>908.803000</v>
+        <v>908.803</v>
       </c>
       <c r="D17" s="1">
-        <v>-179.661000</v>
+        <v>-179.661</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>41604.956137</v>
+        <v>41604.956137000001</v>
       </c>
       <c r="G17" s="1">
         <v>11.556932</v>
       </c>
       <c r="H17" s="1">
-        <v>924.072000</v>
+        <v>924.072</v>
       </c>
       <c r="I17" s="1">
-        <v>-153.492000</v>
+        <v>-153.49199999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>41615.761482</v>
+        <v>41615.761482000002</v>
       </c>
       <c r="L17" s="1">
         <v>11.559934</v>
       </c>
       <c r="M17" s="1">
-        <v>944.303000</v>
+        <v>944.303</v>
       </c>
       <c r="N17" s="1">
-        <v>-111.807000</v>
+        <v>-111.807</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>41626.315389</v>
+        <v>41626.315389000003</v>
       </c>
       <c r="Q17" s="1">
         <v>11.562865</v>
       </c>
       <c r="R17" s="1">
-        <v>951.278000</v>
+        <v>951.27800000000002</v>
       </c>
       <c r="S17" s="1">
-        <v>-98.070800</v>
+        <v>-98.070800000000006</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>41636.835999</v>
+        <v>41636.835999000003</v>
       </c>
       <c r="V17" s="1">
         <v>11.565788</v>
       </c>
       <c r="W17" s="1">
-        <v>958.301000</v>
+        <v>958.30100000000004</v>
       </c>
       <c r="X17" s="1">
-        <v>-85.291800</v>
+        <v>-85.291799999999995</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>41647.284257</v>
+        <v>41647.284256999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>11.568690</v>
+        <v>11.56869</v>
       </c>
       <c r="AB17" s="1">
-        <v>966.366000</v>
+        <v>966.36599999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.028700</v>
+        <v>-76.028700000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>41657.774115</v>
       </c>
       <c r="AF17" s="1">
-        <v>11.571604</v>
+        <v>11.571604000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>971.593000</v>
+        <v>971.59299999999996</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.362900</v>
+        <v>-74.362899999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>41668.313616</v>
+        <v>41668.313615999999</v>
       </c>
       <c r="AK17" s="1">
         <v>11.574532</v>
       </c>
       <c r="AL17" s="1">
-        <v>979.409000</v>
+        <v>979.40899999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.442500</v>
+        <v>-79.442499999999995</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>41679.234059</v>
+        <v>41679.234059000002</v>
       </c>
       <c r="AP17" s="1">
         <v>11.577565</v>
       </c>
       <c r="AQ17" s="1">
-        <v>987.737000</v>
+        <v>987.73699999999997</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.117300</v>
+        <v>-91.1173</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>41690.342952</v>
+        <v>41690.342951999999</v>
       </c>
       <c r="AU17" s="1">
         <v>11.580651</v>
       </c>
       <c r="AV17" s="1">
-        <v>997.659000</v>
+        <v>997.65899999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.831000</v>
+        <v>-108.831</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>41701.038154</v>
+        <v>41701.038154000002</v>
       </c>
       <c r="AZ17" s="1">
         <v>11.583622</v>
       </c>
       <c r="BA17" s="1">
-        <v>1005.970000</v>
+        <v>1005.97</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.429000</v>
+        <v>-124.429</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>41711.714554</v>
+        <v>41711.714553999998</v>
       </c>
       <c r="BE17" s="1">
         <v>11.586587</v>
       </c>
       <c r="BF17" s="1">
-        <v>1044.390000</v>
+        <v>1044.3900000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-196.626000</v>
+        <v>-196.626</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>41722.664448</v>
+        <v>41722.664448000003</v>
       </c>
       <c r="BJ17" s="1">
         <v>11.589629</v>
       </c>
       <c r="BK17" s="1">
-        <v>1110.580000</v>
+        <v>1110.58</v>
       </c>
       <c r="BL17" s="1">
-        <v>-314.151000</v>
+        <v>-314.15100000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>41733.489939</v>
+        <v>41733.489938999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>11.592636</v>
+        <v>11.592636000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1218.390000</v>
+        <v>1218.3900000000001</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-500.119000</v>
+        <v>-500.11900000000003</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>41745.637423</v>
       </c>
       <c r="BT17" s="1">
-        <v>11.596010</v>
+        <v>11.59601</v>
       </c>
       <c r="BU17" s="1">
-        <v>1340.380000</v>
+        <v>1340.38</v>
       </c>
       <c r="BV17" s="1">
-        <v>-704.227000</v>
+        <v>-704.22699999999998</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>41756.881728</v>
       </c>
       <c r="BY17" s="1">
-        <v>11.599134</v>
+        <v>11.599133999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1476.920000</v>
+        <v>1476.92</v>
       </c>
       <c r="CA17" s="1">
-        <v>-922.762000</v>
+        <v>-922.76199999999994</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>41769.477136</v>
+        <v>41769.477136000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>11.602633</v>
+        <v>11.602633000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1836.820000</v>
+        <v>1836.82</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1440.780000</v>
+        <v>-1440.78</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>41595.223647</v>
+        <v>41595.223646999999</v>
       </c>
       <c r="B18" s="1">
-        <v>11.554229</v>
+        <v>11.554228999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>908.865000</v>
+        <v>908.86500000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-179.625000</v>
+        <v>-179.625</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>41605.616350</v>
+        <v>41605.616349999997</v>
       </c>
       <c r="G18" s="1">
-        <v>11.557116</v>
+        <v>11.557116000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>923.286000</v>
+        <v>923.28599999999994</v>
       </c>
       <c r="I18" s="1">
-        <v>-153.178000</v>
+        <v>-153.178</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>41616.141450</v>
+        <v>41616.141450000003</v>
       </c>
       <c r="L18" s="1">
         <v>11.560039</v>
       </c>
       <c r="M18" s="1">
-        <v>944.617000</v>
+        <v>944.61699999999996</v>
       </c>
       <c r="N18" s="1">
-        <v>-111.672000</v>
+        <v>-111.672</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>41626.695788</v>
+        <v>41626.695787999997</v>
       </c>
       <c r="Q18" s="1">
-        <v>11.562971</v>
+        <v>11.562970999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>951.211000</v>
+        <v>951.21100000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-98.013600</v>
+        <v>-98.013599999999997</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>41637.178735</v>
+        <v>41637.178735000001</v>
       </c>
       <c r="V18" s="1">
-        <v>11.565883</v>
+        <v>11.565882999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>958.355000</v>
+        <v>958.35500000000002</v>
       </c>
       <c r="X18" s="1">
-        <v>-85.354500</v>
+        <v>-85.354500000000002</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>41647.637906</v>
+        <v>41647.637906000004</v>
       </c>
       <c r="AA18" s="1">
         <v>11.568788</v>
       </c>
       <c r="AB18" s="1">
-        <v>966.377000</v>
+        <v>966.37699999999995</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.020100</v>
+        <v>-76.020099999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>41658.118340</v>
+        <v>41658.118340000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>11.571700</v>
+        <v>11.5717</v>
       </c>
       <c r="AG18" s="1">
-        <v>971.629000</v>
+        <v>971.62900000000002</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.342900</v>
+        <v>-74.3429</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>41668.735938</v>
+        <v>41668.735937999998</v>
       </c>
       <c r="AK18" s="1">
-        <v>11.574649</v>
+        <v>11.574649000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>979.378000</v>
+        <v>979.37800000000004</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.420400</v>
+        <v>-79.420400000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>41679.526700</v>
+        <v>41679.526700000002</v>
       </c>
       <c r="AP18" s="1">
         <v>11.577646</v>
       </c>
       <c r="AQ18" s="1">
-        <v>987.732000</v>
+        <v>987.73199999999997</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.150700</v>
+        <v>-91.150700000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>41690.654409</v>
+        <v>41690.654409000002</v>
       </c>
       <c r="AU18" s="1">
-        <v>11.580737</v>
+        <v>11.580736999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>997.654000</v>
+        <v>997.654</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.800000</v>
+        <v>-108.8</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>41701.385354</v>
+        <v>41701.385353999998</v>
       </c>
       <c r="AZ18" s="1">
-        <v>11.583718</v>
+        <v>11.583717999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1005.950000</v>
+        <v>1005.95</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.436000</v>
+        <v>-124.43600000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>41712.073676</v>
@@ -4758,285 +5174,285 @@
         <v>11.586687</v>
       </c>
       <c r="BF18" s="1">
-        <v>1044.390000</v>
+        <v>1044.3900000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-196.623000</v>
+        <v>-196.62299999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>41723.039725</v>
+        <v>41723.039725000002</v>
       </c>
       <c r="BJ18" s="1">
-        <v>11.589733</v>
+        <v>11.589733000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1110.580000</v>
+        <v>1110.58</v>
       </c>
       <c r="BL18" s="1">
-        <v>-314.146000</v>
+        <v>-314.14600000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>41734.304335</v>
+        <v>41734.304335000001</v>
       </c>
       <c r="BO18" s="1">
         <v>11.592862</v>
       </c>
       <c r="BP18" s="1">
-        <v>1218.390000</v>
+        <v>1218.3900000000001</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-500.050000</v>
+        <v>-500.05</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>41746.047616</v>
+        <v>41746.047616000003</v>
       </c>
       <c r="BT18" s="1">
         <v>11.596124</v>
       </c>
       <c r="BU18" s="1">
-        <v>1340.390000</v>
+        <v>1340.39</v>
       </c>
       <c r="BV18" s="1">
-        <v>-704.270000</v>
+        <v>-704.27</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>41757.366320</v>
+        <v>41757.366320000001</v>
       </c>
       <c r="BY18" s="1">
         <v>11.599268</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1476.990000</v>
+        <v>1476.99</v>
       </c>
       <c r="CA18" s="1">
-        <v>-922.721000</v>
+        <v>-922.721</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>41770.020256</v>
+        <v>41770.020256000003</v>
       </c>
       <c r="CD18" s="1">
-        <v>11.602783</v>
+        <v>11.602783000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1835.940000</v>
+        <v>1835.94</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1441.770000</v>
+        <v>-1441.77</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>41595.672022</v>
+        <v>41595.672021999999</v>
       </c>
       <c r="B19" s="1">
-        <v>11.554353</v>
+        <v>11.554353000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>908.836000</v>
+        <v>908.83600000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-179.604000</v>
+        <v>-179.60400000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>41605.991289</v>
+        <v>41605.991288999998</v>
       </c>
       <c r="G19" s="1">
-        <v>11.557220</v>
+        <v>11.557219999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>923.567000</v>
+        <v>923.56700000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-152.941000</v>
+        <v>-152.941</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>41616.487131</v>
+        <v>41616.487131000002</v>
       </c>
       <c r="L19" s="1">
-        <v>11.560135</v>
+        <v>11.560135000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>944.562000</v>
+        <v>944.56200000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-111.808000</v>
+        <v>-111.80800000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>41627.044979</v>
+        <v>41627.044978999998</v>
       </c>
       <c r="Q19" s="1">
-        <v>11.563068</v>
+        <v>11.563067999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>951.284000</v>
+        <v>951.28399999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-97.971500</v>
+        <v>-97.971500000000006</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>41637.523950</v>
+        <v>41637.523950000003</v>
       </c>
       <c r="V19" s="1">
         <v>11.565979</v>
       </c>
       <c r="W19" s="1">
-        <v>958.321000</v>
+        <v>958.32100000000003</v>
       </c>
       <c r="X19" s="1">
-        <v>-85.226700</v>
+        <v>-85.226699999999994</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>41648.061456</v>
+        <v>41648.061456000003</v>
       </c>
       <c r="AA19" s="1">
         <v>11.568906</v>
       </c>
       <c r="AB19" s="1">
-        <v>966.389000</v>
+        <v>966.38900000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-75.858200</v>
+        <v>-75.858199999999997</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>41658.555314</v>
+        <v>41658.555313999997</v>
       </c>
       <c r="AF19" s="1">
         <v>11.571821</v>
       </c>
       <c r="AG19" s="1">
-        <v>971.611000</v>
+        <v>971.61099999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.365200</v>
+        <v>-74.365200000000002</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>41669.013988</v>
+        <v>41669.013987999999</v>
       </c>
       <c r="AK19" s="1">
         <v>11.574726</v>
       </c>
       <c r="AL19" s="1">
-        <v>979.366000</v>
+        <v>979.36599999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.420600</v>
+        <v>-79.420599999999993</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>41679.887784</v>
+        <v>41679.887783999999</v>
       </c>
       <c r="AP19" s="1">
         <v>11.577747</v>
       </c>
       <c r="AQ19" s="1">
-        <v>987.710000</v>
+        <v>987.71</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.118900</v>
+        <v>-91.118899999999996</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>41691.020952</v>
+        <v>41691.020951999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>11.580839</v>
+        <v>11.580838999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>997.660000</v>
+        <v>997.66</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.817000</v>
+        <v>-108.81699999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>41701.755370</v>
+        <v>41701.755369999999</v>
       </c>
       <c r="AZ19" s="1">
         <v>11.583821</v>
       </c>
       <c r="BA19" s="1">
-        <v>1005.980000</v>
+        <v>1005.98</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.422000</v>
+        <v>-124.422</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>41712.796810</v>
+        <v>41712.79681</v>
       </c>
       <c r="BE19" s="1">
         <v>11.586888</v>
       </c>
       <c r="BF19" s="1">
-        <v>1044.400000</v>
+        <v>1044.4000000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-196.610000</v>
+        <v>-196.61</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>41723.809484</v>
+        <v>41723.809483999998</v>
       </c>
       <c r="BJ19" s="1">
         <v>11.589947</v>
       </c>
       <c r="BK19" s="1">
-        <v>1110.560000</v>
+        <v>1110.56</v>
       </c>
       <c r="BL19" s="1">
-        <v>-314.113000</v>
+        <v>-314.113</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>41734.721006</v>
@@ -5045,61 +5461,61 @@
         <v>11.592978</v>
       </c>
       <c r="BP19" s="1">
-        <v>1218.390000</v>
+        <v>1218.3900000000001</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-500.067000</v>
+        <v>-500.06700000000001</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>41746.483634</v>
+        <v>41746.483633999997</v>
       </c>
       <c r="BT19" s="1">
         <v>11.596245</v>
       </c>
       <c r="BU19" s="1">
-        <v>1340.390000</v>
+        <v>1340.39</v>
       </c>
       <c r="BV19" s="1">
-        <v>-704.337000</v>
+        <v>-704.33699999999999</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>41758.063694</v>
+        <v>41758.063693999997</v>
       </c>
       <c r="BY19" s="1">
-        <v>11.599462</v>
+        <v>11.599462000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1476.870000</v>
+        <v>1476.87</v>
       </c>
       <c r="CA19" s="1">
-        <v>-922.749000</v>
+        <v>-922.74900000000002</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>41770.873375</v>
+        <v>41770.873375000003</v>
       </c>
       <c r="CD19" s="1">
-        <v>11.603020</v>
+        <v>11.603020000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1836.490000</v>
+        <v>1836.49</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1440.480000</v>
+        <v>-1440.48</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>41595.922005</v>
       </c>
@@ -5107,13 +5523,13 @@
         <v>11.554423</v>
       </c>
       <c r="C20" s="1">
-        <v>909.024000</v>
+        <v>909.024</v>
       </c>
       <c r="D20" s="1">
-        <v>-179.706000</v>
+        <v>-179.70599999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>41606.336035</v>
@@ -5122,1026 +5538,1026 @@
         <v>11.557316</v>
       </c>
       <c r="H20" s="1">
-        <v>923.571000</v>
+        <v>923.57100000000003</v>
       </c>
       <c r="I20" s="1">
-        <v>-153.341000</v>
+        <v>-153.34100000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>41616.832377</v>
+        <v>41616.832376999999</v>
       </c>
       <c r="L20" s="1">
         <v>11.560231</v>
       </c>
       <c r="M20" s="1">
-        <v>944.509000</v>
+        <v>944.50900000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-111.769000</v>
+        <v>-111.76900000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>41627.396142</v>
+        <v>41627.396141999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>11.563166</v>
+        <v>11.563166000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>951.292000</v>
+        <v>951.29200000000003</v>
       </c>
       <c r="S20" s="1">
-        <v>-98.012500</v>
+        <v>-98.012500000000003</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>41637.951502</v>
+        <v>41637.951502000004</v>
       </c>
       <c r="V20" s="1">
         <v>11.566098</v>
       </c>
       <c r="W20" s="1">
-        <v>958.395000</v>
+        <v>958.39499999999998</v>
       </c>
       <c r="X20" s="1">
-        <v>-85.251900</v>
+        <v>-85.251900000000006</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>41648.340705</v>
+        <v>41648.340705000002</v>
       </c>
       <c r="AA20" s="1">
         <v>11.568984</v>
       </c>
       <c r="AB20" s="1">
-        <v>966.377000</v>
+        <v>966.37699999999995</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.033900</v>
+        <v>-76.033900000000003</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>41658.816210</v>
+        <v>41658.816209999997</v>
       </c>
       <c r="AF20" s="1">
-        <v>11.571893</v>
+        <v>11.571892999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>971.587000</v>
+        <v>971.58699999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.346700</v>
+        <v>-74.346699999999998</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>41669.364131</v>
+        <v>41669.364131000002</v>
       </c>
       <c r="AK20" s="1">
         <v>11.574823</v>
       </c>
       <c r="AL20" s="1">
-        <v>979.385000</v>
+        <v>979.38499999999999</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.420100</v>
+        <v>-79.420100000000005</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>41680.246853</v>
+        <v>41680.246852999997</v>
       </c>
       <c r="AP20" s="1">
-        <v>11.577846</v>
+        <v>11.577845999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>987.697000</v>
+        <v>987.697</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.139800</v>
+        <v>-91.139799999999994</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>41691.383527</v>
+        <v>41691.383526999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>11.580940</v>
+        <v>11.58094</v>
       </c>
       <c r="AV20" s="1">
-        <v>997.665000</v>
+        <v>997.66499999999996</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.819000</v>
+        <v>-108.819</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>41702.469112</v>
+        <v>41702.469111999999</v>
       </c>
       <c r="AZ20" s="1">
         <v>11.584019</v>
       </c>
       <c r="BA20" s="1">
-        <v>1005.960000</v>
+        <v>1005.96</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.426000</v>
+        <v>-124.426</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>41713.186206</v>
+        <v>41713.186205999998</v>
       </c>
       <c r="BE20" s="1">
-        <v>11.586996</v>
+        <v>11.586995999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1044.390000</v>
+        <v>1044.3900000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-196.612000</v>
+        <v>-196.61199999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>41724.188465</v>
+        <v>41724.188464999999</v>
       </c>
       <c r="BJ20" s="1">
         <v>11.590052</v>
       </c>
       <c r="BK20" s="1">
-        <v>1110.570000</v>
+        <v>1110.57</v>
       </c>
       <c r="BL20" s="1">
-        <v>-314.141000</v>
+        <v>-314.14100000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>41735.121245</v>
+        <v>41735.121245000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>11.593089</v>
+        <v>11.593089000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1218.370000</v>
+        <v>1218.3699999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-500.112000</v>
+        <v>-500.11200000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>41747.227100</v>
+        <v>41747.227099999996</v>
       </c>
       <c r="BT20" s="1">
-        <v>11.596452</v>
+        <v>11.596451999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1340.400000</v>
+        <v>1340.4</v>
       </c>
       <c r="BV20" s="1">
-        <v>-704.349000</v>
+        <v>-704.34900000000005</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>41758.179758</v>
+        <v>41758.179757999998</v>
       </c>
       <c r="BY20" s="1">
         <v>11.599494</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1476.880000</v>
+        <v>1476.88</v>
       </c>
       <c r="CA20" s="1">
-        <v>-922.621000</v>
+        <v>-922.62099999999998</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>41771.099086</v>
+        <v>41771.099086000002</v>
       </c>
       <c r="CD20" s="1">
         <v>11.603083</v>
       </c>
       <c r="CE20" s="1">
-        <v>1836.520000</v>
+        <v>1836.52</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1440.640000</v>
+        <v>-1440.64</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>41596.264740</v>
+        <v>41596.264739999999</v>
       </c>
       <c r="B21" s="1">
         <v>11.554518</v>
       </c>
       <c r="C21" s="1">
-        <v>908.897000</v>
+        <v>908.89700000000005</v>
       </c>
       <c r="D21" s="1">
-        <v>-179.562000</v>
+        <v>-179.56200000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>41606.680249</v>
+        <v>41606.680248999997</v>
       </c>
       <c r="G21" s="1">
         <v>11.557411</v>
       </c>
       <c r="H21" s="1">
-        <v>923.747000</v>
+        <v>923.74699999999996</v>
       </c>
       <c r="I21" s="1">
-        <v>-153.361000</v>
+        <v>-153.36099999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>41617.257106</v>
+        <v>41617.257105999997</v>
       </c>
       <c r="L21" s="1">
         <v>11.560349</v>
       </c>
       <c r="M21" s="1">
-        <v>944.501000</v>
+        <v>944.50099999999998</v>
       </c>
       <c r="N21" s="1">
-        <v>-111.801000</v>
+        <v>-111.801</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>41627.873788</v>
+        <v>41627.873787999997</v>
       </c>
       <c r="Q21" s="1">
         <v>11.563298</v>
       </c>
       <c r="R21" s="1">
-        <v>951.313000</v>
+        <v>951.31299999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>-98.024100</v>
+        <v>-98.024100000000004</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>41638.220334</v>
+        <v>41638.220333999998</v>
       </c>
       <c r="V21" s="1">
         <v>11.566172</v>
       </c>
       <c r="W21" s="1">
-        <v>958.416000</v>
+        <v>958.41600000000005</v>
       </c>
       <c r="X21" s="1">
-        <v>-85.227800</v>
+        <v>-85.227800000000002</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>41648.685423</v>
+        <v>41648.685423000003</v>
       </c>
       <c r="AA21" s="1">
         <v>11.569079</v>
       </c>
       <c r="AB21" s="1">
-        <v>966.286000</v>
+        <v>966.28599999999994</v>
       </c>
       <c r="AC21" s="1">
-        <v>-75.969500</v>
+        <v>-75.969499999999996</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>41659.162913</v>
       </c>
       <c r="AF21" s="1">
-        <v>11.571990</v>
+        <v>11.57199</v>
       </c>
       <c r="AG21" s="1">
-        <v>971.613000</v>
+        <v>971.61300000000006</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.371500</v>
+        <v>-74.371499999999997</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>41669.711331</v>
+        <v>41669.711330999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>11.574920</v>
+        <v>11.574920000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>979.353000</v>
+        <v>979.35299999999995</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.408200</v>
+        <v>-79.408199999999994</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>41680.967558</v>
+        <v>41680.967557999997</v>
       </c>
       <c r="AP21" s="1">
         <v>11.578047</v>
       </c>
       <c r="AQ21" s="1">
-        <v>987.705000</v>
+        <v>987.70500000000004</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.126300</v>
+        <v>-91.126300000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>41692.116118</v>
+        <v>41692.116117999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>11.581143</v>
+        <v>11.581143000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>997.672000</v>
+        <v>997.67200000000003</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.822000</v>
+        <v>-108.822</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>41702.830201</v>
+        <v>41702.830200999997</v>
       </c>
       <c r="AZ21" s="1">
-        <v>11.584120</v>
+        <v>11.58412</v>
       </c>
       <c r="BA21" s="1">
-        <v>1005.950000</v>
+        <v>1005.95</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.421000</v>
+        <v>-124.42100000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>41713.563131</v>
+        <v>41713.563131000003</v>
       </c>
       <c r="BE21" s="1">
-        <v>11.587101</v>
+        <v>11.587101000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1044.380000</v>
+        <v>1044.3800000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-196.605000</v>
+        <v>-196.60499999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>41724.562449</v>
+        <v>41724.562448999997</v>
       </c>
       <c r="BJ21" s="1">
         <v>11.590156</v>
       </c>
       <c r="BK21" s="1">
-        <v>1110.580000</v>
+        <v>1110.58</v>
       </c>
       <c r="BL21" s="1">
-        <v>-314.142000</v>
+        <v>-314.142</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>41735.851356</v>
+        <v>41735.851355999999</v>
       </c>
       <c r="BO21" s="1">
         <v>11.593292</v>
       </c>
       <c r="BP21" s="1">
-        <v>1218.410000</v>
+        <v>1218.4100000000001</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-500.056000</v>
+        <v>-500.05599999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>41747.356093</v>
+        <v>41747.356093000002</v>
       </c>
       <c r="BT21" s="1">
-        <v>11.596488</v>
+        <v>11.596488000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1340.460000</v>
+        <v>1340.46</v>
       </c>
       <c r="BV21" s="1">
-        <v>-704.438000</v>
+        <v>-704.43799999999999</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>41758.626159</v>
+        <v>41758.626158999999</v>
       </c>
       <c r="BY21" s="1">
         <v>11.599618</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1476.830000</v>
+        <v>1476.83</v>
       </c>
       <c r="CA21" s="1">
-        <v>-922.713000</v>
+        <v>-922.71299999999997</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>41771.617900</v>
+        <v>41771.617899999997</v>
       </c>
       <c r="CD21" s="1">
         <v>11.603227</v>
       </c>
       <c r="CE21" s="1">
-        <v>1836.360000</v>
+        <v>1836.36</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1441.870000</v>
+        <v>-1441.87</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>41596.688820</v>
+        <v>41596.688820000003</v>
       </c>
       <c r="B22" s="1">
         <v>11.554636</v>
       </c>
       <c r="C22" s="1">
-        <v>908.979000</v>
+        <v>908.97900000000004</v>
       </c>
       <c r="D22" s="1">
-        <v>-179.690000</v>
+        <v>-179.69</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>41607.109767</v>
+        <v>41607.109767000002</v>
       </c>
       <c r="G22" s="1">
-        <v>11.557530</v>
+        <v>11.55753</v>
       </c>
       <c r="H22" s="1">
-        <v>923.878000</v>
+        <v>923.87800000000004</v>
       </c>
       <c r="I22" s="1">
-        <v>-153.216000</v>
+        <v>-153.21600000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>41617.537658</v>
+        <v>41617.537658000001</v>
       </c>
       <c r="L22" s="1">
-        <v>11.560427</v>
+        <v>11.560427000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>944.618000</v>
+        <v>944.61800000000005</v>
       </c>
       <c r="N22" s="1">
-        <v>-111.820000</v>
+        <v>-111.82</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>41628.117818</v>
+        <v>41628.117817999999</v>
       </c>
       <c r="Q22" s="1">
         <v>11.563366</v>
       </c>
       <c r="R22" s="1">
-        <v>951.306000</v>
+        <v>951.30600000000004</v>
       </c>
       <c r="S22" s="1">
-        <v>-98.059900</v>
+        <v>-98.059899999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>41638.561086</v>
+        <v>41638.561086000002</v>
       </c>
       <c r="V22" s="1">
         <v>11.566267</v>
       </c>
       <c r="W22" s="1">
-        <v>958.393000</v>
+        <v>958.39300000000003</v>
       </c>
       <c r="X22" s="1">
-        <v>-85.226700</v>
+        <v>-85.226699999999994</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>41649.038575</v>
+        <v>41649.038574999999</v>
       </c>
       <c r="AA22" s="1">
         <v>11.569177</v>
       </c>
       <c r="AB22" s="1">
-        <v>966.402000</v>
+        <v>966.40200000000004</v>
       </c>
       <c r="AC22" s="1">
-        <v>-75.974800</v>
+        <v>-75.974800000000002</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>41659.508129</v>
+        <v>41659.508129000002</v>
       </c>
       <c r="AF22" s="1">
-        <v>11.572086</v>
+        <v>11.572086000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>971.611000</v>
+        <v>971.61099999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.312600</v>
+        <v>-74.312600000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>41670.412179</v>
+        <v>41670.412178999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>11.575114</v>
+        <v>11.575113999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>979.378000</v>
+        <v>979.37800000000004</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.434800</v>
+        <v>-79.434799999999996</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>41681.355944</v>
+        <v>41681.355944000003</v>
       </c>
       <c r="AP22" s="1">
         <v>11.578154</v>
       </c>
       <c r="AQ22" s="1">
-        <v>987.704000</v>
+        <v>987.70399999999995</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.117500</v>
+        <v>-91.117500000000007</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>41692.501509</v>
+        <v>41692.501509000002</v>
       </c>
       <c r="AU22" s="1">
-        <v>11.581250</v>
+        <v>11.581250000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>997.652000</v>
+        <v>997.65200000000004</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.824000</v>
+        <v>-108.824</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>41703.188807</v>
+        <v>41703.188806999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>11.584219</v>
+        <v>11.584218999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1005.970000</v>
+        <v>1005.97</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.447000</v>
+        <v>-124.447</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>41714.240698</v>
+        <v>41714.240698000001</v>
       </c>
       <c r="BE22" s="1">
         <v>11.587289</v>
       </c>
       <c r="BF22" s="1">
-        <v>1044.400000</v>
+        <v>1044.4000000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-196.610000</v>
+        <v>-196.61</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>41725.203740</v>
+        <v>41725.203739999997</v>
       </c>
       <c r="BJ22" s="1">
         <v>11.590334</v>
       </c>
       <c r="BK22" s="1">
-        <v>1110.580000</v>
+        <v>1110.58</v>
       </c>
       <c r="BL22" s="1">
-        <v>-314.159000</v>
+        <v>-314.15899999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>41736.358796</v>
       </c>
       <c r="BO22" s="1">
-        <v>11.593433</v>
+        <v>11.593432999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1218.380000</v>
+        <v>1218.3800000000001</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-500.087000</v>
+        <v>-500.08699999999999</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>41747.769265</v>
+        <v>41747.769265000003</v>
       </c>
       <c r="BT22" s="1">
         <v>11.596603</v>
       </c>
       <c r="BU22" s="1">
-        <v>1340.430000</v>
+        <v>1340.43</v>
       </c>
       <c r="BV22" s="1">
-        <v>-704.474000</v>
+        <v>-704.47400000000005</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>41759.082013</v>
+        <v>41759.082012999999</v>
       </c>
       <c r="BY22" s="1">
         <v>11.599745</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1476.910000</v>
+        <v>1476.91</v>
       </c>
       <c r="CA22" s="1">
-        <v>-922.726000</v>
+        <v>-922.726</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>41772.134205</v>
+        <v>41772.134205000002</v>
       </c>
       <c r="CD22" s="1">
-        <v>11.603371</v>
+        <v>11.603370999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1836.130000</v>
+        <v>1836.13</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1441.250000</v>
+        <v>-1441.25</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>41596.961157</v>
+        <v>41596.961156999998</v>
       </c>
       <c r="B23" s="1">
-        <v>11.554711</v>
+        <v>11.554710999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>909.053000</v>
+        <v>909.053</v>
       </c>
       <c r="D23" s="1">
-        <v>-179.563000</v>
+        <v>-179.56299999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>41607.371685</v>
+        <v>41607.371684999998</v>
       </c>
       <c r="G23" s="1">
         <v>11.557603</v>
       </c>
       <c r="H23" s="1">
-        <v>924.027000</v>
+        <v>924.02700000000004</v>
       </c>
       <c r="I23" s="1">
-        <v>-152.937000</v>
+        <v>-152.93700000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>41617.882402</v>
+        <v>41617.882402000003</v>
       </c>
       <c r="L23" s="1">
         <v>11.560523</v>
       </c>
       <c r="M23" s="1">
-        <v>944.658000</v>
+        <v>944.65800000000002</v>
       </c>
       <c r="N23" s="1">
-        <v>-111.764000</v>
+        <v>-111.764</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>41628.466506</v>
+        <v>41628.466505999997</v>
       </c>
       <c r="Q23" s="1">
         <v>11.563463</v>
       </c>
       <c r="R23" s="1">
-        <v>951.267000</v>
+        <v>951.26700000000005</v>
       </c>
       <c r="S23" s="1">
-        <v>-98.028300</v>
+        <v>-98.028300000000002</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>41638.906829</v>
       </c>
       <c r="V23" s="1">
-        <v>11.566363</v>
+        <v>11.566363000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>958.403000</v>
+        <v>958.40300000000002</v>
       </c>
       <c r="X23" s="1">
-        <v>-85.384100</v>
+        <v>-85.384100000000004</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>41649.737438</v>
+        <v>41649.737437999996</v>
       </c>
       <c r="AA23" s="1">
         <v>11.569372</v>
       </c>
       <c r="AB23" s="1">
-        <v>966.366000</v>
+        <v>966.36599999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-75.929800</v>
+        <v>-75.9298</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>41660.225840</v>
+        <v>41660.225839999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>11.572285</v>
+        <v>11.572285000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>971.599000</v>
+        <v>971.59900000000005</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.380400</v>
+        <v>-74.380399999999995</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>41670.756898</v>
       </c>
       <c r="AK23" s="1">
-        <v>11.575210</v>
+        <v>11.57521</v>
       </c>
       <c r="AL23" s="1">
-        <v>979.408000</v>
+        <v>979.40800000000002</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.445100</v>
+        <v>-79.445099999999996</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>41681.716995</v>
+        <v>41681.716995000002</v>
       </c>
       <c r="AP23" s="1">
         <v>11.578255</v>
       </c>
       <c r="AQ23" s="1">
-        <v>987.691000</v>
+        <v>987.69100000000003</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.128100</v>
+        <v>-91.128100000000003</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>41693.172597</v>
+        <v>41693.172596999997</v>
       </c>
       <c r="AU23" s="1">
-        <v>11.581437</v>
+        <v>11.581436999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>997.614000</v>
+        <v>997.61400000000003</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.830000</v>
+        <v>-108.83</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>41703.860888</v>
+        <v>41703.860888000003</v>
       </c>
       <c r="AZ23" s="1">
         <v>11.584406</v>
       </c>
       <c r="BA23" s="1">
-        <v>1005.960000</v>
+        <v>1005.96</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.461000</v>
+        <v>-124.461</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>41714.646920</v>
+        <v>41714.646919999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>11.587402</v>
+        <v>11.587402000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1044.380000</v>
+        <v>1044.3800000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-196.633000</v>
+        <v>-196.63300000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>41725.334682</v>
+        <v>41725.334682000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>11.590371</v>
+        <v>11.590370999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1110.580000</v>
+        <v>1110.58</v>
       </c>
       <c r="BL23" s="1">
-        <v>-314.174000</v>
+        <v>-314.17399999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>41736.777884</v>
+        <v>41736.777884000003</v>
       </c>
       <c r="BO23" s="1">
-        <v>11.593549</v>
+        <v>11.593548999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1218.440000</v>
+        <v>1218.44</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-500.098000</v>
+        <v>-500.09800000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>41748.195429</v>
+        <v>41748.195428999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>11.596721</v>
+        <v>11.596721000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1340.470000</v>
+        <v>1340.47</v>
       </c>
       <c r="BV23" s="1">
-        <v>-704.458000</v>
+        <v>-704.45799999999997</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>41759.522429</v>
+        <v>41759.522428999997</v>
       </c>
       <c r="BY23" s="1">
         <v>11.599867</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1477.010000</v>
+        <v>1477.01</v>
       </c>
       <c r="CA23" s="1">
-        <v>-922.657000</v>
+        <v>-922.65700000000004</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>41772.696171</v>
+        <v>41772.696171000003</v>
       </c>
       <c r="CD23" s="1">
         <v>11.603527</v>
       </c>
       <c r="CE23" s="1">
-        <v>1836.620000</v>
+        <v>1836.62</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1440.560000</v>
+        <v>-1440.56</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>41597.305348</v>
+        <v>41597.305348000002</v>
       </c>
       <c r="B24" s="1">
         <v>11.554807</v>
       </c>
       <c r="C24" s="1">
-        <v>909.102000</v>
+        <v>909.10199999999998</v>
       </c>
       <c r="D24" s="1">
-        <v>-179.614000</v>
+        <v>-179.614</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>41607.716406</v>
@@ -6150,375 +6566,375 @@
         <v>11.557699</v>
       </c>
       <c r="H24" s="1">
-        <v>923.412000</v>
+        <v>923.41200000000003</v>
       </c>
       <c r="I24" s="1">
-        <v>-153.205000</v>
+        <v>-153.20500000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>41618.226599</v>
+        <v>41618.226599000001</v>
       </c>
       <c r="L24" s="1">
         <v>11.560618</v>
       </c>
       <c r="M24" s="1">
-        <v>944.425000</v>
+        <v>944.42499999999995</v>
       </c>
       <c r="N24" s="1">
-        <v>-111.808000</v>
+        <v>-111.80800000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>41629.164909</v>
+        <v>41629.164908999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>11.563657</v>
+        <v>11.563656999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>951.258000</v>
+        <v>951.25800000000004</v>
       </c>
       <c r="S24" s="1">
-        <v>-97.993100</v>
+        <v>-97.993099999999998</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>41639.592300</v>
+        <v>41639.592299999997</v>
       </c>
       <c r="V24" s="1">
-        <v>11.566553</v>
+        <v>11.566553000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>958.372000</v>
+        <v>958.37199999999996</v>
       </c>
       <c r="X24" s="1">
-        <v>-85.366900</v>
+        <v>-85.366900000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>41650.084141</v>
+        <v>41650.084140999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>11.569468</v>
+        <v>11.569468000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>966.342000</v>
+        <v>966.34199999999998</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.018900</v>
+        <v>-76.018900000000002</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>41660.553280</v>
+        <v>41660.55328</v>
       </c>
       <c r="AF24" s="1">
         <v>11.572376</v>
       </c>
       <c r="AG24" s="1">
-        <v>971.627000</v>
+        <v>971.62699999999995</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.351500</v>
+        <v>-74.351500000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>41671.105623</v>
+        <v>41671.105623000003</v>
       </c>
       <c r="AK24" s="1">
         <v>11.575307</v>
       </c>
       <c r="AL24" s="1">
-        <v>979.396000</v>
+        <v>979.39599999999996</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.429100</v>
+        <v>-79.429100000000005</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>41682.394564</v>
+        <v>41682.394564000002</v>
       </c>
       <c r="AP24" s="1">
         <v>11.578443</v>
       </c>
       <c r="AQ24" s="1">
-        <v>987.713000</v>
+        <v>987.71299999999997</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.129200</v>
+        <v>-91.129199999999997</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>41693.590263</v>
+        <v>41693.590262999998</v>
       </c>
       <c r="AU24" s="1">
         <v>11.581553</v>
       </c>
       <c r="AV24" s="1">
-        <v>997.629000</v>
+        <v>997.62900000000002</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.825000</v>
+        <v>-108.825</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>41704.265157</v>
+        <v>41704.265157000002</v>
       </c>
       <c r="AZ24" s="1">
-        <v>11.584518</v>
+        <v>11.584517999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1005.970000</v>
+        <v>1005.97</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.425000</v>
+        <v>-124.425</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>41715.038268</v>
+        <v>41715.038267999997</v>
       </c>
       <c r="BE24" s="1">
-        <v>11.587511</v>
+        <v>11.587510999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1044.390000</v>
+        <v>1044.3900000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-196.593000</v>
+        <v>-196.59299999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>41725.715121</v>
+        <v>41725.715121000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>11.590476</v>
+        <v>11.590476000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1110.580000</v>
+        <v>1110.58</v>
       </c>
       <c r="BL24" s="1">
-        <v>-314.152000</v>
+        <v>-314.15199999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>41737.175674</v>
+        <v>41737.175673999998</v>
       </c>
       <c r="BO24" s="1">
-        <v>11.593660</v>
+        <v>11.59366</v>
       </c>
       <c r="BP24" s="1">
-        <v>1218.370000</v>
+        <v>1218.3699999999999</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-500.084000</v>
+        <v>-500.084</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>41748.613916</v>
+        <v>41748.613916000002</v>
       </c>
       <c r="BT24" s="1">
-        <v>11.596837</v>
+        <v>11.596837000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1340.520000</v>
+        <v>1340.52</v>
       </c>
       <c r="BV24" s="1">
-        <v>-704.481000</v>
+        <v>-704.48099999999999</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>41759.985693</v>
+        <v>41759.985693000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>11.599996</v>
+        <v>11.599996000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1476.850000</v>
+        <v>1476.85</v>
       </c>
       <c r="CA24" s="1">
-        <v>-922.742000</v>
+        <v>-922.74199999999996</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>41773.220444</v>
+        <v>41773.220443999999</v>
       </c>
       <c r="CD24" s="1">
         <v>11.603672</v>
       </c>
       <c r="CE24" s="1">
-        <v>1836.160000</v>
+        <v>1836.16</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1441.690000</v>
+        <v>-1441.69</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>41597.648611</v>
+        <v>41597.648610999997</v>
       </c>
       <c r="B25" s="1">
         <v>11.554902</v>
       </c>
       <c r="C25" s="1">
-        <v>909.046000</v>
+        <v>909.04600000000005</v>
       </c>
       <c r="D25" s="1">
-        <v>-179.511000</v>
+        <v>-179.511</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>41608.060133</v>
+        <v>41608.060132999999</v>
       </c>
       <c r="G25" s="1">
-        <v>11.557794</v>
+        <v>11.557793999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>923.464000</v>
+        <v>923.46400000000006</v>
       </c>
       <c r="I25" s="1">
-        <v>-153.131000</v>
+        <v>-153.131</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>41618.920999</v>
+        <v>41618.920999000002</v>
       </c>
       <c r="L25" s="1">
-        <v>11.560811</v>
+        <v>11.560810999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>944.377000</v>
+        <v>944.37699999999995</v>
       </c>
       <c r="N25" s="1">
-        <v>-111.772000</v>
+        <v>-111.77200000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>41629.515048</v>
+        <v>41629.515048000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>11.563754</v>
+        <v>11.563753999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>951.302000</v>
+        <v>951.30200000000002</v>
       </c>
       <c r="S25" s="1">
-        <v>-98.004300</v>
+        <v>-98.004300000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>41639.935500</v>
+        <v>41639.9355</v>
       </c>
       <c r="V25" s="1">
         <v>11.566649</v>
       </c>
       <c r="W25" s="1">
-        <v>958.225000</v>
+        <v>958.22500000000002</v>
       </c>
       <c r="X25" s="1">
-        <v>-85.362800</v>
+        <v>-85.362799999999993</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>41650.435310</v>
+        <v>41650.435310000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>11.569565</v>
+        <v>11.569565000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>966.307000</v>
+        <v>966.30700000000002</v>
       </c>
       <c r="AC25" s="1">
-        <v>-75.948300</v>
+        <v>-75.948300000000003</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>41661.210895</v>
+        <v>41661.210894999997</v>
       </c>
       <c r="AF25" s="1">
         <v>11.572559</v>
       </c>
       <c r="AG25" s="1">
-        <v>971.629000</v>
+        <v>971.62900000000002</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.354800</v>
+        <v>-74.354799999999997</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>41671.769730</v>
+        <v>41671.76973</v>
       </c>
       <c r="AK25" s="1">
-        <v>11.575492</v>
+        <v>11.575492000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>979.387000</v>
+        <v>979.38699999999994</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.438300</v>
+        <v>-79.438299999999998</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>41682.817122</v>
       </c>
       <c r="AP25" s="1">
-        <v>11.578560</v>
+        <v>11.57856</v>
       </c>
       <c r="AQ25" s="1">
-        <v>987.690000</v>
+        <v>987.69</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.123300</v>
+        <v>-91.1233</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>41693.984548</v>
@@ -6527,88 +6943,88 @@
         <v>11.581662</v>
       </c>
       <c r="AV25" s="1">
-        <v>997.638000</v>
+        <v>997.63800000000003</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.812000</v>
+        <v>-108.812</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>41704.650033</v>
+        <v>41704.650032999998</v>
       </c>
       <c r="AZ25" s="1">
-        <v>11.584625</v>
+        <v>11.584625000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1005.970000</v>
+        <v>1005.97</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.426000</v>
+        <v>-124.426</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>41715.398421</v>
+        <v>41715.398420999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>11.587611</v>
+        <v>11.587611000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1044.410000</v>
+        <v>1044.4100000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-196.614000</v>
+        <v>-196.614</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>41726.141673</v>
+        <v>41726.141672999998</v>
       </c>
       <c r="BJ25" s="1">
         <v>11.590595</v>
       </c>
       <c r="BK25" s="1">
-        <v>1110.550000</v>
+        <v>1110.55</v>
       </c>
       <c r="BL25" s="1">
-        <v>-314.142000</v>
+        <v>-314.142</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>41737.601274</v>
+        <v>41737.601274000001</v>
       </c>
       <c r="BO25" s="1">
         <v>11.593778</v>
       </c>
       <c r="BP25" s="1">
-        <v>1218.410000</v>
+        <v>1218.4100000000001</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-500.072000</v>
+        <v>-500.072</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>41749.024602</v>
+        <v>41749.024601999998</v>
       </c>
       <c r="BT25" s="1">
-        <v>11.596951</v>
+        <v>11.596951000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1340.490000</v>
+        <v>1340.49</v>
       </c>
       <c r="BV25" s="1">
-        <v>-704.567000</v>
+        <v>-704.56700000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>41760.436555</v>
@@ -6617,165 +7033,165 @@
         <v>11.600121</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1476.970000</v>
+        <v>1476.97</v>
       </c>
       <c r="CA25" s="1">
-        <v>-922.789000</v>
+        <v>-922.78899999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>41773.734299</v>
+        <v>41773.734299000003</v>
       </c>
       <c r="CD25" s="1">
-        <v>11.603815</v>
+        <v>11.603815000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1836.140000</v>
+        <v>1836.14</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1441.370000</v>
+        <v>-1441.37</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>41598.328626</v>
+        <v>41598.328626000002</v>
       </c>
       <c r="B26" s="1">
-        <v>11.555091</v>
+        <v>11.555090999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>908.939000</v>
+        <v>908.93899999999996</v>
       </c>
       <c r="D26" s="1">
-        <v>-179.478000</v>
+        <v>-179.47800000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>41608.750067</v>
+        <v>41608.750067000001</v>
       </c>
       <c r="G26" s="1">
         <v>11.557986</v>
       </c>
       <c r="H26" s="1">
-        <v>923.741000</v>
+        <v>923.74099999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-152.945000</v>
+        <v>-152.94499999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>41619.265222</v>
+        <v>41619.265222000002</v>
       </c>
       <c r="L26" s="1">
         <v>11.560907</v>
       </c>
       <c r="M26" s="1">
-        <v>944.346000</v>
+        <v>944.346</v>
       </c>
       <c r="N26" s="1">
-        <v>-111.759000</v>
+        <v>-111.759</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>41629.864268</v>
+        <v>41629.864267999998</v>
       </c>
       <c r="Q26" s="1">
         <v>11.563851</v>
       </c>
       <c r="R26" s="1">
-        <v>951.310000</v>
+        <v>951.31</v>
       </c>
       <c r="S26" s="1">
-        <v>-98.051200</v>
+        <v>-98.051199999999994</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>41640.281210</v>
+        <v>41640.281210000001</v>
       </c>
       <c r="V26" s="1">
-        <v>11.566745</v>
+        <v>11.566744999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>958.329000</v>
+        <v>958.32899999999995</v>
       </c>
       <c r="X26" s="1">
-        <v>-85.364700</v>
+        <v>-85.364699999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>41651.100939</v>
+        <v>41651.100939000004</v>
       </c>
       <c r="AA26" s="1">
-        <v>11.569750</v>
+        <v>11.569750000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>966.304000</v>
+        <v>966.30399999999997</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.028800</v>
+        <v>-76.028800000000004</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>41661.584382</v>
+        <v>41661.584382000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>11.572662</v>
+        <v>11.572661999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>971.588000</v>
+        <v>971.58799999999997</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.377900</v>
+        <v>-74.377899999999997</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>41672.152145</v>
       </c>
       <c r="AK26" s="1">
-        <v>11.575598</v>
+        <v>11.575597999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>979.412000</v>
+        <v>979.41200000000003</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.449400</v>
+        <v>-79.449399999999997</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>41683.208006</v>
+        <v>41683.208006000001</v>
       </c>
       <c r="AP26" s="1">
         <v>11.578669</v>
       </c>
       <c r="AQ26" s="1">
-        <v>987.716000</v>
+        <v>987.71600000000001</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.129000</v>
+        <v>-91.129000000000005</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>41694.351123</v>
@@ -6784,120 +7200,121 @@
         <v>11.581764</v>
       </c>
       <c r="AV26" s="1">
-        <v>997.648000</v>
+        <v>997.64800000000002</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.819000</v>
+        <v>-108.819</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>41705.007141</v>
+        <v>41705.007141000002</v>
       </c>
       <c r="AZ26" s="1">
         <v>11.584724</v>
       </c>
       <c r="BA26" s="1">
-        <v>1005.950000</v>
+        <v>1005.95</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.410000</v>
+        <v>-124.41</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>41715.820951</v>
+        <v>41715.820951000002</v>
       </c>
       <c r="BE26" s="1">
         <v>11.587728</v>
       </c>
       <c r="BF26" s="1">
-        <v>1044.390000</v>
+        <v>1044.3900000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-196.610000</v>
+        <v>-196.61</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>41726.461625</v>
+        <v>41726.461625000004</v>
       </c>
       <c r="BJ26" s="1">
         <v>11.590684</v>
       </c>
       <c r="BK26" s="1">
-        <v>1110.580000</v>
+        <v>1110.58</v>
       </c>
       <c r="BL26" s="1">
-        <v>-314.137000</v>
+        <v>-314.137</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>41737.992089</v>
+        <v>41737.992088999999</v>
       </c>
       <c r="BO26" s="1">
         <v>11.593887</v>
       </c>
       <c r="BP26" s="1">
-        <v>1218.390000</v>
+        <v>1218.3900000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-500.089000</v>
+        <v>-500.089</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>41749.440746</v>
       </c>
       <c r="BT26" s="1">
-        <v>11.597067</v>
+        <v>11.597066999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1340.520000</v>
+        <v>1340.52</v>
       </c>
       <c r="BV26" s="1">
-        <v>-704.629000</v>
+        <v>-704.62900000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>41760.857691</v>
+        <v>41760.857690999997</v>
       </c>
       <c r="BY26" s="1">
-        <v>11.600238</v>
+        <v>11.600237999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1476.940000</v>
+        <v>1476.94</v>
       </c>
       <c r="CA26" s="1">
-        <v>-922.611000</v>
+        <v>-922.61099999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>41774.343881</v>
+        <v>41774.343881000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>11.603984</v>
+        <v>11.603984000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1836.150000</v>
+        <v>1836.15</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1440.680000</v>
+        <v>-1440.68</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>